--- a/bax_insertion/data/KD2_dataset.xlsx
+++ b/bax_insertion/data/KD2_dataset.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Endpoints" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="12">
   <si>
     <t>cBid</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Activator:</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>RLS</t>
   </si>
 </sst>
 </file>
@@ -205,13 +214,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -223,27 +244,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -553,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HI125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,521 +573,521 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:217" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="19">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="7">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="19">
         <v>36</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="7">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="19">
         <v>47</v>
       </c>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="7">
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="19">
         <v>54</v>
       </c>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CN1" s="8"/>
-      <c r="CO1" s="8"/>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="8"/>
-      <c r="CR1" s="8"/>
-      <c r="CS1" s="9"/>
-      <c r="CT1" s="7">
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="19">
         <v>122</v>
       </c>
-      <c r="CU1" s="8"/>
-      <c r="CV1" s="8"/>
-      <c r="CW1" s="8"/>
-      <c r="CX1" s="8"/>
-      <c r="CY1" s="8"/>
-      <c r="CZ1" s="8"/>
-      <c r="DA1" s="8"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="8"/>
-      <c r="DD1" s="8"/>
-      <c r="DE1" s="8"/>
-      <c r="DF1" s="8"/>
-      <c r="DG1" s="8"/>
-      <c r="DH1" s="8"/>
-      <c r="DI1" s="8"/>
-      <c r="DJ1" s="8"/>
-      <c r="DK1" s="8"/>
-      <c r="DL1" s="8"/>
-      <c r="DM1" s="8"/>
-      <c r="DN1" s="8"/>
-      <c r="DO1" s="8"/>
-      <c r="DP1" s="8"/>
-      <c r="DQ1" s="9"/>
-      <c r="DR1" s="7">
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="19">
         <v>126</v>
       </c>
-      <c r="DS1" s="8"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="8"/>
-      <c r="DV1" s="8"/>
-      <c r="DW1" s="8"/>
-      <c r="DX1" s="8"/>
-      <c r="DY1" s="8"/>
-      <c r="DZ1" s="8"/>
-      <c r="EA1" s="8"/>
-      <c r="EB1" s="8"/>
-      <c r="EC1" s="8"/>
-      <c r="ED1" s="8"/>
-      <c r="EE1" s="8"/>
-      <c r="EF1" s="8"/>
-      <c r="EG1" s="8"/>
-      <c r="EH1" s="8"/>
-      <c r="EI1" s="8"/>
-      <c r="EJ1" s="8"/>
-      <c r="EK1" s="8"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="8"/>
-      <c r="EN1" s="8"/>
-      <c r="EO1" s="9"/>
-      <c r="EP1" s="7">
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DV1" s="20"/>
+      <c r="DW1" s="20"/>
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
+      <c r="EA1" s="20"/>
+      <c r="EB1" s="20"/>
+      <c r="EC1" s="20"/>
+      <c r="ED1" s="20"/>
+      <c r="EE1" s="20"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="20"/>
+      <c r="EH1" s="20"/>
+      <c r="EI1" s="20"/>
+      <c r="EJ1" s="20"/>
+      <c r="EK1" s="20"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="20"/>
+      <c r="EN1" s="20"/>
+      <c r="EO1" s="21"/>
+      <c r="EP1" s="19">
         <v>138</v>
       </c>
-      <c r="EQ1" s="8"/>
-      <c r="ER1" s="8"/>
-      <c r="ES1" s="8"/>
-      <c r="ET1" s="8"/>
-      <c r="EU1" s="8"/>
-      <c r="EV1" s="8"/>
-      <c r="EW1" s="8"/>
-      <c r="EX1" s="8"/>
-      <c r="EY1" s="8"/>
-      <c r="EZ1" s="8"/>
-      <c r="FA1" s="8"/>
-      <c r="FB1" s="8"/>
-      <c r="FC1" s="8"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="8"/>
-      <c r="FF1" s="8"/>
-      <c r="FG1" s="8"/>
-      <c r="FH1" s="8"/>
-      <c r="FI1" s="8"/>
-      <c r="FJ1" s="8"/>
-      <c r="FK1" s="8"/>
-      <c r="FL1" s="8"/>
-      <c r="FM1" s="9"/>
-      <c r="FN1" s="7">
+      <c r="EQ1" s="20"/>
+      <c r="ER1" s="20"/>
+      <c r="ES1" s="20"/>
+      <c r="ET1" s="20"/>
+      <c r="EU1" s="20"/>
+      <c r="EV1" s="20"/>
+      <c r="EW1" s="20"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="20"/>
+      <c r="EZ1" s="20"/>
+      <c r="FA1" s="20"/>
+      <c r="FB1" s="20"/>
+      <c r="FC1" s="20"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="20"/>
+      <c r="FF1" s="20"/>
+      <c r="FG1" s="20"/>
+      <c r="FH1" s="20"/>
+      <c r="FI1" s="20"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="20"/>
+      <c r="FL1" s="20"/>
+      <c r="FM1" s="21"/>
+      <c r="FN1" s="19">
         <v>151</v>
       </c>
-      <c r="FO1" s="8"/>
-      <c r="FP1" s="8"/>
-      <c r="FQ1" s="8"/>
-      <c r="FR1" s="8"/>
-      <c r="FS1" s="8"/>
-      <c r="FT1" s="8"/>
-      <c r="FU1" s="8"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="8"/>
-      <c r="FX1" s="8"/>
-      <c r="FY1" s="8"/>
-      <c r="FZ1" s="8"/>
-      <c r="GA1" s="8"/>
-      <c r="GB1" s="8"/>
-      <c r="GC1" s="8"/>
-      <c r="GD1" s="8"/>
-      <c r="GE1" s="8"/>
-      <c r="GF1" s="8"/>
-      <c r="GG1" s="8"/>
-      <c r="GH1" s="8"/>
-      <c r="GI1" s="8"/>
-      <c r="GJ1" s="8"/>
-      <c r="GK1" s="9"/>
-      <c r="GL1" s="7">
+      <c r="FO1" s="20"/>
+      <c r="FP1" s="20"/>
+      <c r="FQ1" s="20"/>
+      <c r="FR1" s="20"/>
+      <c r="FS1" s="20"/>
+      <c r="FT1" s="20"/>
+      <c r="FU1" s="20"/>
+      <c r="FV1" s="20"/>
+      <c r="FW1" s="20"/>
+      <c r="FX1" s="20"/>
+      <c r="FY1" s="20"/>
+      <c r="FZ1" s="20"/>
+      <c r="GA1" s="20"/>
+      <c r="GB1" s="20"/>
+      <c r="GC1" s="20"/>
+      <c r="GD1" s="20"/>
+      <c r="GE1" s="20"/>
+      <c r="GF1" s="20"/>
+      <c r="GG1" s="20"/>
+      <c r="GH1" s="20"/>
+      <c r="GI1" s="20"/>
+      <c r="GJ1" s="20"/>
+      <c r="GK1" s="21"/>
+      <c r="GL1" s="19">
         <v>175</v>
       </c>
-      <c r="GM1" s="8"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="8"/>
-      <c r="GP1" s="8"/>
-      <c r="GQ1" s="8"/>
-      <c r="GR1" s="8"/>
-      <c r="GS1" s="8"/>
-      <c r="GT1" s="8"/>
-      <c r="GU1" s="8"/>
-      <c r="GV1" s="8"/>
-      <c r="GW1" s="8"/>
-      <c r="GX1" s="8"/>
-      <c r="GY1" s="8"/>
-      <c r="GZ1" s="8"/>
-      <c r="HA1" s="8"/>
-      <c r="HB1" s="8"/>
-      <c r="HC1" s="8"/>
-      <c r="HD1" s="8"/>
-      <c r="HE1" s="8"/>
-      <c r="HF1" s="8"/>
-      <c r="HG1" s="8"/>
-      <c r="HH1" s="8"/>
-      <c r="HI1" s="9"/>
+      <c r="GM1" s="20"/>
+      <c r="GN1" s="20"/>
+      <c r="GO1" s="20"/>
+      <c r="GP1" s="20"/>
+      <c r="GQ1" s="20"/>
+      <c r="GR1" s="20"/>
+      <c r="GS1" s="20"/>
+      <c r="GT1" s="20"/>
+      <c r="GU1" s="20"/>
+      <c r="GV1" s="20"/>
+      <c r="GW1" s="20"/>
+      <c r="GX1" s="20"/>
+      <c r="GY1" s="20"/>
+      <c r="GZ1" s="20"/>
+      <c r="HA1" s="20"/>
+      <c r="HB1" s="20"/>
+      <c r="HC1" s="20"/>
+      <c r="HD1" s="20"/>
+      <c r="HE1" s="20"/>
+      <c r="HF1" s="20"/>
+      <c r="HG1" s="20"/>
+      <c r="HH1" s="20"/>
+      <c r="HI1" s="21"/>
     </row>
     <row r="2" spans="1:217" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="16">
         <v>2</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="10">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="16">
         <v>3</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="10">
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="16">
         <v>1</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="10">
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="16">
         <v>2</v>
       </c>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="10">
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="16">
         <v>3</v>
       </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="10">
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="16">
         <v>1</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="10">
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="16">
         <v>2</v>
       </c>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="10">
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="16">
         <v>3</v>
       </c>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="10">
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="16">
         <v>1</v>
       </c>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="10">
+      <c r="BW2" s="17"/>
+      <c r="BX2" s="17"/>
+      <c r="BY2" s="17"/>
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="16">
         <v>2</v>
       </c>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="10">
+      <c r="CE2" s="17"/>
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="17"/>
+      <c r="CH2" s="17"/>
+      <c r="CI2" s="17"/>
+      <c r="CJ2" s="17"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="16">
         <v>3</v>
       </c>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11"/>
-      <c r="CO2" s="11"/>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="10">
+      <c r="CM2" s="17"/>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="17"/>
+      <c r="CQ2" s="17"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="16">
         <v>1</v>
       </c>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="11"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11"/>
-      <c r="DA2" s="12"/>
-      <c r="DB2" s="10">
+      <c r="CU2" s="17"/>
+      <c r="CV2" s="17"/>
+      <c r="CW2" s="17"/>
+      <c r="CX2" s="17"/>
+      <c r="CY2" s="17"/>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="18"/>
+      <c r="DB2" s="16">
         <v>2</v>
       </c>
-      <c r="DC2" s="11"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11"/>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="10">
+      <c r="DC2" s="17"/>
+      <c r="DD2" s="17"/>
+      <c r="DE2" s="17"/>
+      <c r="DF2" s="17"/>
+      <c r="DG2" s="17"/>
+      <c r="DH2" s="17"/>
+      <c r="DI2" s="18"/>
+      <c r="DJ2" s="16">
         <v>3</v>
       </c>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="11"/>
-      <c r="DM2" s="11"/>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="11"/>
-      <c r="DP2" s="11"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="10">
+      <c r="DK2" s="17"/>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="17"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="17"/>
+      <c r="DQ2" s="18"/>
+      <c r="DR2" s="16">
         <v>1</v>
       </c>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11"/>
-      <c r="DU2" s="11"/>
-      <c r="DV2" s="11"/>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="11"/>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="10">
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="17"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="17"/>
+      <c r="DW2" s="17"/>
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="18"/>
+      <c r="DZ2" s="16">
         <v>2</v>
       </c>
-      <c r="EA2" s="11"/>
-      <c r="EB2" s="11"/>
-      <c r="EC2" s="11"/>
-      <c r="ED2" s="11"/>
-      <c r="EE2" s="11"/>
-      <c r="EF2" s="11"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="10">
+      <c r="EA2" s="17"/>
+      <c r="EB2" s="17"/>
+      <c r="EC2" s="17"/>
+      <c r="ED2" s="17"/>
+      <c r="EE2" s="17"/>
+      <c r="EF2" s="17"/>
+      <c r="EG2" s="18"/>
+      <c r="EH2" s="16">
         <v>3</v>
       </c>
-      <c r="EI2" s="11"/>
-      <c r="EJ2" s="11"/>
-      <c r="EK2" s="11"/>
-      <c r="EL2" s="11"/>
-      <c r="EM2" s="11"/>
-      <c r="EN2" s="11"/>
-      <c r="EO2" s="12"/>
-      <c r="EP2" s="10">
+      <c r="EI2" s="17"/>
+      <c r="EJ2" s="17"/>
+      <c r="EK2" s="17"/>
+      <c r="EL2" s="17"/>
+      <c r="EM2" s="17"/>
+      <c r="EN2" s="17"/>
+      <c r="EO2" s="18"/>
+      <c r="EP2" s="16">
         <v>1</v>
       </c>
-      <c r="EQ2" s="11"/>
-      <c r="ER2" s="11"/>
-      <c r="ES2" s="11"/>
-      <c r="ET2" s="11"/>
-      <c r="EU2" s="11"/>
-      <c r="EV2" s="11"/>
-      <c r="EW2" s="12"/>
-      <c r="EX2" s="10">
+      <c r="EQ2" s="17"/>
+      <c r="ER2" s="17"/>
+      <c r="ES2" s="17"/>
+      <c r="ET2" s="17"/>
+      <c r="EU2" s="17"/>
+      <c r="EV2" s="17"/>
+      <c r="EW2" s="18"/>
+      <c r="EX2" s="16">
         <v>2</v>
       </c>
-      <c r="EY2" s="11"/>
-      <c r="EZ2" s="11"/>
-      <c r="FA2" s="11"/>
-      <c r="FB2" s="11"/>
-      <c r="FC2" s="11"/>
-      <c r="FD2" s="11"/>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="10">
+      <c r="EY2" s="17"/>
+      <c r="EZ2" s="17"/>
+      <c r="FA2" s="17"/>
+      <c r="FB2" s="17"/>
+      <c r="FC2" s="17"/>
+      <c r="FD2" s="17"/>
+      <c r="FE2" s="18"/>
+      <c r="FF2" s="16">
         <v>3</v>
       </c>
-      <c r="FG2" s="11"/>
-      <c r="FH2" s="11"/>
-      <c r="FI2" s="11"/>
-      <c r="FJ2" s="11"/>
-      <c r="FK2" s="11"/>
-      <c r="FL2" s="11"/>
-      <c r="FM2" s="12"/>
-      <c r="FN2" s="10">
+      <c r="FG2" s="17"/>
+      <c r="FH2" s="17"/>
+      <c r="FI2" s="17"/>
+      <c r="FJ2" s="17"/>
+      <c r="FK2" s="17"/>
+      <c r="FL2" s="17"/>
+      <c r="FM2" s="18"/>
+      <c r="FN2" s="16">
         <v>1</v>
       </c>
-      <c r="FO2" s="11"/>
-      <c r="FP2" s="11"/>
-      <c r="FQ2" s="11"/>
-      <c r="FR2" s="11"/>
-      <c r="FS2" s="11"/>
-      <c r="FT2" s="11"/>
-      <c r="FU2" s="12"/>
-      <c r="FV2" s="10">
+      <c r="FO2" s="17"/>
+      <c r="FP2" s="17"/>
+      <c r="FQ2" s="17"/>
+      <c r="FR2" s="17"/>
+      <c r="FS2" s="17"/>
+      <c r="FT2" s="17"/>
+      <c r="FU2" s="18"/>
+      <c r="FV2" s="16">
         <v>2</v>
       </c>
-      <c r="FW2" s="11"/>
-      <c r="FX2" s="11"/>
-      <c r="FY2" s="11"/>
-      <c r="FZ2" s="11"/>
-      <c r="GA2" s="11"/>
-      <c r="GB2" s="11"/>
-      <c r="GC2" s="12"/>
-      <c r="GD2" s="10">
+      <c r="FW2" s="17"/>
+      <c r="FX2" s="17"/>
+      <c r="FY2" s="17"/>
+      <c r="FZ2" s="17"/>
+      <c r="GA2" s="17"/>
+      <c r="GB2" s="17"/>
+      <c r="GC2" s="18"/>
+      <c r="GD2" s="16">
         <v>3</v>
       </c>
-      <c r="GE2" s="11"/>
-      <c r="GF2" s="11"/>
-      <c r="GG2" s="11"/>
-      <c r="GH2" s="11"/>
-      <c r="GI2" s="11"/>
-      <c r="GJ2" s="11"/>
-      <c r="GK2" s="12"/>
-      <c r="GL2" s="10">
+      <c r="GE2" s="17"/>
+      <c r="GF2" s="17"/>
+      <c r="GG2" s="17"/>
+      <c r="GH2" s="17"/>
+      <c r="GI2" s="17"/>
+      <c r="GJ2" s="17"/>
+      <c r="GK2" s="18"/>
+      <c r="GL2" s="16">
         <v>1</v>
       </c>
-      <c r="GM2" s="11"/>
-      <c r="GN2" s="11"/>
-      <c r="GO2" s="11"/>
-      <c r="GP2" s="11"/>
-      <c r="GQ2" s="11"/>
-      <c r="GR2" s="11"/>
-      <c r="GS2" s="12"/>
-      <c r="GT2" s="10">
+      <c r="GM2" s="17"/>
+      <c r="GN2" s="17"/>
+      <c r="GO2" s="17"/>
+      <c r="GP2" s="17"/>
+      <c r="GQ2" s="17"/>
+      <c r="GR2" s="17"/>
+      <c r="GS2" s="18"/>
+      <c r="GT2" s="16">
         <v>2</v>
       </c>
-      <c r="GU2" s="11"/>
-      <c r="GV2" s="11"/>
-      <c r="GW2" s="11"/>
-      <c r="GX2" s="11"/>
-      <c r="GY2" s="11"/>
-      <c r="GZ2" s="11"/>
-      <c r="HA2" s="12"/>
-      <c r="HB2" s="10">
+      <c r="GU2" s="17"/>
+      <c r="GV2" s="17"/>
+      <c r="GW2" s="17"/>
+      <c r="GX2" s="17"/>
+      <c r="GY2" s="17"/>
+      <c r="GZ2" s="17"/>
+      <c r="HA2" s="18"/>
+      <c r="HB2" s="16">
         <v>3</v>
       </c>
-      <c r="HC2" s="11"/>
-      <c r="HD2" s="11"/>
-      <c r="HE2" s="11"/>
-      <c r="HF2" s="11"/>
-      <c r="HG2" s="11"/>
-      <c r="HH2" s="11"/>
-      <c r="HI2" s="12"/>
+      <c r="HC2" s="17"/>
+      <c r="HD2" s="17"/>
+      <c r="HE2" s="17"/>
+      <c r="HF2" s="17"/>
+      <c r="HG2" s="17"/>
+      <c r="HH2" s="17"/>
+      <c r="HI2" s="18"/>
     </row>
     <row r="3" spans="1:217" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1087,324 +1096,324 @@
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
       <c r="R3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="12"/>
       <c r="Z3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
       <c r="AC3" s="15"/>
-      <c r="AD3" s="16" t="s">
+      <c r="AD3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="18"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="12"/>
       <c r="AH3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="14"/>
       <c r="AK3" s="15"/>
-      <c r="AL3" s="16" t="s">
+      <c r="AL3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="18"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="12"/>
       <c r="AP3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AQ3" s="14"/>
       <c r="AR3" s="14"/>
       <c r="AS3" s="15"/>
-      <c r="AT3" s="16" t="s">
+      <c r="AT3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="18"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="12"/>
       <c r="AX3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AY3" s="14"/>
       <c r="AZ3" s="14"/>
       <c r="BA3" s="15"/>
-      <c r="BB3" s="16" t="s">
+      <c r="BB3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="18"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="12"/>
       <c r="BF3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BG3" s="14"/>
       <c r="BH3" s="14"/>
       <c r="BI3" s="15"/>
-      <c r="BJ3" s="16" t="s">
+      <c r="BJ3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BK3" s="17"/>
-      <c r="BL3" s="17"/>
-      <c r="BM3" s="18"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="12"/>
       <c r="BN3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BO3" s="14"/>
       <c r="BP3" s="14"/>
       <c r="BQ3" s="15"/>
-      <c r="BR3" s="16" t="s">
+      <c r="BR3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="17"/>
-      <c r="BU3" s="18"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="12"/>
       <c r="BV3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="BW3" s="14"/>
       <c r="BX3" s="14"/>
       <c r="BY3" s="15"/>
-      <c r="BZ3" s="16" t="s">
+      <c r="BZ3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="CA3" s="17"/>
-      <c r="CB3" s="17"/>
-      <c r="CC3" s="18"/>
+      <c r="CA3" s="11"/>
+      <c r="CB3" s="11"/>
+      <c r="CC3" s="12"/>
       <c r="CD3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="CE3" s="14"/>
       <c r="CF3" s="14"/>
       <c r="CG3" s="15"/>
-      <c r="CH3" s="16" t="s">
+      <c r="CH3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="CI3" s="17"/>
-      <c r="CJ3" s="17"/>
-      <c r="CK3" s="18"/>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="12"/>
       <c r="CL3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="CM3" s="14"/>
       <c r="CN3" s="14"/>
       <c r="CO3" s="15"/>
-      <c r="CP3" s="16" t="s">
+      <c r="CP3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="CQ3" s="17"/>
-      <c r="CR3" s="17"/>
-      <c r="CS3" s="18"/>
+      <c r="CQ3" s="11"/>
+      <c r="CR3" s="11"/>
+      <c r="CS3" s="12"/>
       <c r="CT3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="CU3" s="14"/>
       <c r="CV3" s="14"/>
       <c r="CW3" s="15"/>
-      <c r="CX3" s="16" t="s">
+      <c r="CX3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="CY3" s="17"/>
-      <c r="CZ3" s="17"/>
-      <c r="DA3" s="18"/>
+      <c r="CY3" s="11"/>
+      <c r="CZ3" s="11"/>
+      <c r="DA3" s="12"/>
       <c r="DB3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="DC3" s="14"/>
       <c r="DD3" s="14"/>
       <c r="DE3" s="15"/>
-      <c r="DF3" s="16" t="s">
+      <c r="DF3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="DG3" s="17"/>
-      <c r="DH3" s="17"/>
-      <c r="DI3" s="18"/>
+      <c r="DG3" s="11"/>
+      <c r="DH3" s="11"/>
+      <c r="DI3" s="12"/>
       <c r="DJ3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="DK3" s="14"/>
       <c r="DL3" s="14"/>
       <c r="DM3" s="15"/>
-      <c r="DN3" s="16" t="s">
+      <c r="DN3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="DO3" s="17"/>
-      <c r="DP3" s="17"/>
-      <c r="DQ3" s="18"/>
+      <c r="DO3" s="11"/>
+      <c r="DP3" s="11"/>
+      <c r="DQ3" s="12"/>
       <c r="DR3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="DS3" s="14"/>
       <c r="DT3" s="14"/>
       <c r="DU3" s="15"/>
-      <c r="DV3" s="16" t="s">
+      <c r="DV3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="DW3" s="17"/>
-      <c r="DX3" s="17"/>
-      <c r="DY3" s="18"/>
+      <c r="DW3" s="11"/>
+      <c r="DX3" s="11"/>
+      <c r="DY3" s="12"/>
       <c r="DZ3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="EA3" s="14"/>
       <c r="EB3" s="14"/>
       <c r="EC3" s="15"/>
-      <c r="ED3" s="16" t="s">
+      <c r="ED3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="EE3" s="17"/>
-      <c r="EF3" s="17"/>
-      <c r="EG3" s="18"/>
+      <c r="EE3" s="11"/>
+      <c r="EF3" s="11"/>
+      <c r="EG3" s="12"/>
       <c r="EH3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="EI3" s="14"/>
       <c r="EJ3" s="14"/>
       <c r="EK3" s="15"/>
-      <c r="EL3" s="16" t="s">
+      <c r="EL3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="EM3" s="17"/>
-      <c r="EN3" s="17"/>
-      <c r="EO3" s="18"/>
+      <c r="EM3" s="11"/>
+      <c r="EN3" s="11"/>
+      <c r="EO3" s="12"/>
       <c r="EP3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="EQ3" s="14"/>
       <c r="ER3" s="14"/>
       <c r="ES3" s="15"/>
-      <c r="ET3" s="16" t="s">
+      <c r="ET3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="EU3" s="17"/>
-      <c r="EV3" s="17"/>
-      <c r="EW3" s="18"/>
+      <c r="EU3" s="11"/>
+      <c r="EV3" s="11"/>
+      <c r="EW3" s="12"/>
       <c r="EX3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="EY3" s="14"/>
       <c r="EZ3" s="14"/>
       <c r="FA3" s="15"/>
-      <c r="FB3" s="16" t="s">
+      <c r="FB3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="FC3" s="17"/>
-      <c r="FD3" s="17"/>
-      <c r="FE3" s="18"/>
+      <c r="FC3" s="11"/>
+      <c r="FD3" s="11"/>
+      <c r="FE3" s="12"/>
       <c r="FF3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="FG3" s="14"/>
       <c r="FH3" s="14"/>
       <c r="FI3" s="15"/>
-      <c r="FJ3" s="16" t="s">
+      <c r="FJ3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="FK3" s="17"/>
-      <c r="FL3" s="17"/>
-      <c r="FM3" s="18"/>
+      <c r="FK3" s="11"/>
+      <c r="FL3" s="11"/>
+      <c r="FM3" s="12"/>
       <c r="FN3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="FO3" s="14"/>
       <c r="FP3" s="14"/>
       <c r="FQ3" s="15"/>
-      <c r="FR3" s="16" t="s">
+      <c r="FR3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="FS3" s="17"/>
-      <c r="FT3" s="17"/>
-      <c r="FU3" s="18"/>
+      <c r="FS3" s="11"/>
+      <c r="FT3" s="11"/>
+      <c r="FU3" s="12"/>
       <c r="FV3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="FW3" s="14"/>
       <c r="FX3" s="14"/>
       <c r="FY3" s="15"/>
-      <c r="FZ3" s="16" t="s">
+      <c r="FZ3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="GA3" s="17"/>
-      <c r="GB3" s="17"/>
-      <c r="GC3" s="18"/>
+      <c r="GA3" s="11"/>
+      <c r="GB3" s="11"/>
+      <c r="GC3" s="12"/>
       <c r="GD3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="GE3" s="14"/>
       <c r="GF3" s="14"/>
       <c r="GG3" s="15"/>
-      <c r="GH3" s="16" t="s">
+      <c r="GH3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="GI3" s="17"/>
-      <c r="GJ3" s="17"/>
-      <c r="GK3" s="18"/>
+      <c r="GI3" s="11"/>
+      <c r="GJ3" s="11"/>
+      <c r="GK3" s="12"/>
       <c r="GL3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="GM3" s="14"/>
       <c r="GN3" s="14"/>
       <c r="GO3" s="15"/>
-      <c r="GP3" s="16" t="s">
+      <c r="GP3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="GQ3" s="17"/>
-      <c r="GR3" s="17"/>
-      <c r="GS3" s="18"/>
+      <c r="GQ3" s="11"/>
+      <c r="GR3" s="11"/>
+      <c r="GS3" s="12"/>
       <c r="GT3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="GU3" s="14"/>
       <c r="GV3" s="14"/>
       <c r="GW3" s="15"/>
-      <c r="GX3" s="16" t="s">
+      <c r="GX3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="GY3" s="17"/>
-      <c r="GZ3" s="17"/>
-      <c r="HA3" s="18"/>
+      <c r="GY3" s="11"/>
+      <c r="GZ3" s="11"/>
+      <c r="HA3" s="12"/>
       <c r="HB3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="HC3" s="14"/>
       <c r="HD3" s="14"/>
       <c r="HE3" s="15"/>
-      <c r="HF3" s="16" t="s">
+      <c r="HF3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="HG3" s="17"/>
-      <c r="HH3" s="17"/>
-      <c r="HI3" s="18"/>
+      <c r="HG3" s="11"/>
+      <c r="HH3" s="11"/>
+      <c r="HI3" s="12"/>
     </row>
     <row r="4" spans="1:217" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -80706,48 +80715,38 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="HF3:HI3"/>
-    <mergeCell ref="GH3:GK3"/>
-    <mergeCell ref="GL3:GO3"/>
-    <mergeCell ref="GP3:GS3"/>
-    <mergeCell ref="GT3:GW3"/>
-    <mergeCell ref="GX3:HA3"/>
-    <mergeCell ref="HB3:HE3"/>
-    <mergeCell ref="GD3:GG3"/>
-    <mergeCell ref="EL3:EO3"/>
-    <mergeCell ref="EP3:ES3"/>
-    <mergeCell ref="ET3:EW3"/>
-    <mergeCell ref="EX3:FA3"/>
-    <mergeCell ref="FB3:FE3"/>
-    <mergeCell ref="FF3:FI3"/>
-    <mergeCell ref="FJ3:FM3"/>
-    <mergeCell ref="FN3:FQ3"/>
-    <mergeCell ref="FR3:FU3"/>
-    <mergeCell ref="FV3:FY3"/>
-    <mergeCell ref="FZ3:GC3"/>
-    <mergeCell ref="EH3:EK3"/>
-    <mergeCell ref="CT3:CW3"/>
-    <mergeCell ref="CX3:DA3"/>
-    <mergeCell ref="DB3:DE3"/>
-    <mergeCell ref="DF3:DI3"/>
-    <mergeCell ref="DJ3:DM3"/>
-    <mergeCell ref="DN3:DQ3"/>
-    <mergeCell ref="DR3:DU3"/>
-    <mergeCell ref="DV3:DY3"/>
-    <mergeCell ref="DZ3:EC3"/>
-    <mergeCell ref="ED3:EG3"/>
-    <mergeCell ref="CP3:CS3"/>
-    <mergeCell ref="BR3:BU3"/>
-    <mergeCell ref="BV3:BY3"/>
-    <mergeCell ref="BZ3:CC3"/>
-    <mergeCell ref="CD3:CG3"/>
-    <mergeCell ref="CH3:CK3"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="FN1:GK1"/>
+    <mergeCell ref="GL1:HI1"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="Z1:AW1"/>
+    <mergeCell ref="AX1:BU1"/>
+    <mergeCell ref="BV1:CS1"/>
+    <mergeCell ref="CT1:DQ1"/>
+    <mergeCell ref="DR1:EO1"/>
+    <mergeCell ref="EP1:FM1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="DZ2:EG2"/>
+    <mergeCell ref="EH2:EO2"/>
+    <mergeCell ref="EP2:EW2"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="GT2:HA2"/>
     <mergeCell ref="HB2:HI2"/>
@@ -80764,38 +80763,48 @@
     <mergeCell ref="BF3:BI3"/>
     <mergeCell ref="BJ3:BM3"/>
     <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="DZ2:EG2"/>
-    <mergeCell ref="EH2:EO2"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CL2:CS2"/>
-    <mergeCell ref="FN1:GK1"/>
-    <mergeCell ref="GL1:HI1"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="Z1:AW1"/>
-    <mergeCell ref="AX1:BU1"/>
-    <mergeCell ref="BV1:CS1"/>
-    <mergeCell ref="CT1:DQ1"/>
-    <mergeCell ref="DR1:EO1"/>
-    <mergeCell ref="EP1:FM1"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="EH3:EK3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="CX3:DA3"/>
+    <mergeCell ref="DB3:DE3"/>
+    <mergeCell ref="DF3:DI3"/>
+    <mergeCell ref="DJ3:DM3"/>
+    <mergeCell ref="DN3:DQ3"/>
+    <mergeCell ref="DR3:DU3"/>
+    <mergeCell ref="DV3:DY3"/>
+    <mergeCell ref="DZ3:EC3"/>
+    <mergeCell ref="ED3:EG3"/>
+    <mergeCell ref="GD3:GG3"/>
+    <mergeCell ref="EL3:EO3"/>
+    <mergeCell ref="EP3:ES3"/>
+    <mergeCell ref="ET3:EW3"/>
+    <mergeCell ref="EX3:FA3"/>
+    <mergeCell ref="FB3:FE3"/>
+    <mergeCell ref="FF3:FI3"/>
+    <mergeCell ref="FJ3:FM3"/>
+    <mergeCell ref="FN3:FQ3"/>
+    <mergeCell ref="FR3:FU3"/>
+    <mergeCell ref="FV3:FY3"/>
+    <mergeCell ref="FZ3:GC3"/>
+    <mergeCell ref="HF3:HI3"/>
+    <mergeCell ref="GH3:GK3"/>
+    <mergeCell ref="GL3:GO3"/>
+    <mergeCell ref="GP3:GS3"/>
+    <mergeCell ref="GT3:GW3"/>
+    <mergeCell ref="GX3:HA3"/>
+    <mergeCell ref="HB3:HE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80803,12 +80812,4260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:HI26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:W26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:217" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19">
+        <v>3</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="19">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="19">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="19">
+        <v>54</v>
+      </c>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="19">
+        <v>122</v>
+      </c>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="19">
+        <v>126</v>
+      </c>
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DV1" s="20"/>
+      <c r="DW1" s="20"/>
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
+      <c r="EA1" s="20"/>
+      <c r="EB1" s="20"/>
+      <c r="EC1" s="20"/>
+      <c r="ED1" s="20"/>
+      <c r="EE1" s="20"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="20"/>
+      <c r="EH1" s="20"/>
+      <c r="EI1" s="20"/>
+      <c r="EJ1" s="20"/>
+      <c r="EK1" s="20"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="20"/>
+      <c r="EN1" s="20"/>
+      <c r="EO1" s="21"/>
+      <c r="EP1" s="19">
+        <v>138</v>
+      </c>
+      <c r="EQ1" s="20"/>
+      <c r="ER1" s="20"/>
+      <c r="ES1" s="20"/>
+      <c r="ET1" s="20"/>
+      <c r="EU1" s="20"/>
+      <c r="EV1" s="20"/>
+      <c r="EW1" s="20"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="20"/>
+      <c r="EZ1" s="20"/>
+      <c r="FA1" s="20"/>
+      <c r="FB1" s="20"/>
+      <c r="FC1" s="20"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="20"/>
+      <c r="FF1" s="20"/>
+      <c r="FG1" s="20"/>
+      <c r="FH1" s="20"/>
+      <c r="FI1" s="20"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="20"/>
+      <c r="FL1" s="20"/>
+      <c r="FM1" s="21"/>
+      <c r="FN1" s="19">
+        <v>151</v>
+      </c>
+      <c r="FO1" s="20"/>
+      <c r="FP1" s="20"/>
+      <c r="FQ1" s="20"/>
+      <c r="FR1" s="20"/>
+      <c r="FS1" s="20"/>
+      <c r="FT1" s="20"/>
+      <c r="FU1" s="20"/>
+      <c r="FV1" s="20"/>
+      <c r="FW1" s="20"/>
+      <c r="FX1" s="20"/>
+      <c r="FY1" s="20"/>
+      <c r="FZ1" s="20"/>
+      <c r="GA1" s="20"/>
+      <c r="GB1" s="20"/>
+      <c r="GC1" s="20"/>
+      <c r="GD1" s="20"/>
+      <c r="GE1" s="20"/>
+      <c r="GF1" s="20"/>
+      <c r="GG1" s="20"/>
+      <c r="GH1" s="20"/>
+      <c r="GI1" s="20"/>
+      <c r="GJ1" s="20"/>
+      <c r="GK1" s="21"/>
+      <c r="GL1" s="19">
+        <v>175</v>
+      </c>
+      <c r="GM1" s="20"/>
+      <c r="GN1" s="20"/>
+      <c r="GO1" s="20"/>
+      <c r="GP1" s="20"/>
+      <c r="GQ1" s="20"/>
+      <c r="GR1" s="20"/>
+      <c r="GS1" s="20"/>
+      <c r="GT1" s="20"/>
+      <c r="GU1" s="20"/>
+      <c r="GV1" s="20"/>
+      <c r="GW1" s="20"/>
+      <c r="GX1" s="20"/>
+      <c r="GY1" s="20"/>
+      <c r="GZ1" s="20"/>
+      <c r="HA1" s="20"/>
+      <c r="HB1" s="20"/>
+      <c r="HC1" s="20"/>
+      <c r="HD1" s="20"/>
+      <c r="HE1" s="20"/>
+      <c r="HF1" s="20"/>
+      <c r="HG1" s="20"/>
+      <c r="HH1" s="20"/>
+      <c r="HI1" s="21"/>
+    </row>
+    <row r="2" spans="1:217" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="16">
+        <v>2</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="16">
+        <v>3</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="16">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="16">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="16">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="16">
+        <v>3</v>
+      </c>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="16">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="17"/>
+      <c r="BX2" s="17"/>
+      <c r="BY2" s="17"/>
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="16">
+        <v>2</v>
+      </c>
+      <c r="CE2" s="17"/>
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="17"/>
+      <c r="CH2" s="17"/>
+      <c r="CI2" s="17"/>
+      <c r="CJ2" s="17"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="16">
+        <v>3</v>
+      </c>
+      <c r="CM2" s="17"/>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="17"/>
+      <c r="CQ2" s="17"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="16">
+        <v>1</v>
+      </c>
+      <c r="CU2" s="17"/>
+      <c r="CV2" s="17"/>
+      <c r="CW2" s="17"/>
+      <c r="CX2" s="17"/>
+      <c r="CY2" s="17"/>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="18"/>
+      <c r="DB2" s="16">
+        <v>2</v>
+      </c>
+      <c r="DC2" s="17"/>
+      <c r="DD2" s="17"/>
+      <c r="DE2" s="17"/>
+      <c r="DF2" s="17"/>
+      <c r="DG2" s="17"/>
+      <c r="DH2" s="17"/>
+      <c r="DI2" s="18"/>
+      <c r="DJ2" s="16">
+        <v>3</v>
+      </c>
+      <c r="DK2" s="17"/>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="17"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="17"/>
+      <c r="DQ2" s="18"/>
+      <c r="DR2" s="16">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="17"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="17"/>
+      <c r="DW2" s="17"/>
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="18"/>
+      <c r="DZ2" s="16">
+        <v>2</v>
+      </c>
+      <c r="EA2" s="17"/>
+      <c r="EB2" s="17"/>
+      <c r="EC2" s="17"/>
+      <c r="ED2" s="17"/>
+      <c r="EE2" s="17"/>
+      <c r="EF2" s="17"/>
+      <c r="EG2" s="18"/>
+      <c r="EH2" s="16">
+        <v>3</v>
+      </c>
+      <c r="EI2" s="17"/>
+      <c r="EJ2" s="17"/>
+      <c r="EK2" s="17"/>
+      <c r="EL2" s="17"/>
+      <c r="EM2" s="17"/>
+      <c r="EN2" s="17"/>
+      <c r="EO2" s="18"/>
+      <c r="EP2" s="16">
+        <v>1</v>
+      </c>
+      <c r="EQ2" s="17"/>
+      <c r="ER2" s="17"/>
+      <c r="ES2" s="17"/>
+      <c r="ET2" s="17"/>
+      <c r="EU2" s="17"/>
+      <c r="EV2" s="17"/>
+      <c r="EW2" s="18"/>
+      <c r="EX2" s="16">
+        <v>2</v>
+      </c>
+      <c r="EY2" s="17"/>
+      <c r="EZ2" s="17"/>
+      <c r="FA2" s="17"/>
+      <c r="FB2" s="17"/>
+      <c r="FC2" s="17"/>
+      <c r="FD2" s="17"/>
+      <c r="FE2" s="18"/>
+      <c r="FF2" s="16">
+        <v>3</v>
+      </c>
+      <c r="FG2" s="17"/>
+      <c r="FH2" s="17"/>
+      <c r="FI2" s="17"/>
+      <c r="FJ2" s="17"/>
+      <c r="FK2" s="17"/>
+      <c r="FL2" s="17"/>
+      <c r="FM2" s="18"/>
+      <c r="FN2" s="16">
+        <v>1</v>
+      </c>
+      <c r="FO2" s="17"/>
+      <c r="FP2" s="17"/>
+      <c r="FQ2" s="17"/>
+      <c r="FR2" s="17"/>
+      <c r="FS2" s="17"/>
+      <c r="FT2" s="17"/>
+      <c r="FU2" s="18"/>
+      <c r="FV2" s="16">
+        <v>2</v>
+      </c>
+      <c r="FW2" s="17"/>
+      <c r="FX2" s="17"/>
+      <c r="FY2" s="17"/>
+      <c r="FZ2" s="17"/>
+      <c r="GA2" s="17"/>
+      <c r="GB2" s="17"/>
+      <c r="GC2" s="18"/>
+      <c r="GD2" s="16">
+        <v>3</v>
+      </c>
+      <c r="GE2" s="17"/>
+      <c r="GF2" s="17"/>
+      <c r="GG2" s="17"/>
+      <c r="GH2" s="17"/>
+      <c r="GI2" s="17"/>
+      <c r="GJ2" s="17"/>
+      <c r="GK2" s="18"/>
+      <c r="GL2" s="16">
+        <v>1</v>
+      </c>
+      <c r="GM2" s="17"/>
+      <c r="GN2" s="17"/>
+      <c r="GO2" s="17"/>
+      <c r="GP2" s="17"/>
+      <c r="GQ2" s="17"/>
+      <c r="GR2" s="17"/>
+      <c r="GS2" s="18"/>
+      <c r="GT2" s="16">
+        <v>2</v>
+      </c>
+      <c r="GU2" s="17"/>
+      <c r="GV2" s="17"/>
+      <c r="GW2" s="17"/>
+      <c r="GX2" s="17"/>
+      <c r="GY2" s="17"/>
+      <c r="GZ2" s="17"/>
+      <c r="HA2" s="18"/>
+      <c r="HB2" s="16">
+        <v>3</v>
+      </c>
+      <c r="HC2" s="17"/>
+      <c r="HD2" s="17"/>
+      <c r="HE2" s="17"/>
+      <c r="HF2" s="17"/>
+      <c r="HG2" s="17"/>
+      <c r="HH2" s="17"/>
+      <c r="HI2" s="18"/>
+    </row>
+    <row r="3" spans="1:217" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="11"/>
+      <c r="CB3" s="11"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="12"/>
+      <c r="CL3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="11"/>
+      <c r="CR3" s="11"/>
+      <c r="CS3" s="12"/>
+      <c r="CT3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="11"/>
+      <c r="CZ3" s="11"/>
+      <c r="DA3" s="12"/>
+      <c r="DB3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="15"/>
+      <c r="DF3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="11"/>
+      <c r="DH3" s="11"/>
+      <c r="DI3" s="12"/>
+      <c r="DJ3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="15"/>
+      <c r="DN3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO3" s="11"/>
+      <c r="DP3" s="11"/>
+      <c r="DQ3" s="12"/>
+      <c r="DR3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="15"/>
+      <c r="DV3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="11"/>
+      <c r="DX3" s="11"/>
+      <c r="DY3" s="12"/>
+      <c r="DZ3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="15"/>
+      <c r="ED3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE3" s="11"/>
+      <c r="EF3" s="11"/>
+      <c r="EG3" s="12"/>
+      <c r="EH3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="15"/>
+      <c r="EL3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM3" s="11"/>
+      <c r="EN3" s="11"/>
+      <c r="EO3" s="12"/>
+      <c r="EP3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="15"/>
+      <c r="ET3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU3" s="11"/>
+      <c r="EV3" s="11"/>
+      <c r="EW3" s="12"/>
+      <c r="EX3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="15"/>
+      <c r="FB3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC3" s="11"/>
+      <c r="FD3" s="11"/>
+      <c r="FE3" s="12"/>
+      <c r="FF3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="15"/>
+      <c r="FJ3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="FK3" s="11"/>
+      <c r="FL3" s="11"/>
+      <c r="FM3" s="12"/>
+      <c r="FN3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="15"/>
+      <c r="FR3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="11"/>
+      <c r="FT3" s="11"/>
+      <c r="FU3" s="12"/>
+      <c r="FV3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="14"/>
+      <c r="FX3" s="14"/>
+      <c r="FY3" s="15"/>
+      <c r="FZ3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA3" s="11"/>
+      <c r="GB3" s="11"/>
+      <c r="GC3" s="12"/>
+      <c r="GD3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="GE3" s="14"/>
+      <c r="GF3" s="14"/>
+      <c r="GG3" s="15"/>
+      <c r="GH3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="GI3" s="11"/>
+      <c r="GJ3" s="11"/>
+      <c r="GK3" s="12"/>
+      <c r="GL3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="GM3" s="14"/>
+      <c r="GN3" s="14"/>
+      <c r="GO3" s="15"/>
+      <c r="GP3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ3" s="11"/>
+      <c r="GR3" s="11"/>
+      <c r="GS3" s="12"/>
+      <c r="GT3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="GU3" s="14"/>
+      <c r="GV3" s="14"/>
+      <c r="GW3" s="15"/>
+      <c r="GX3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY3" s="11"/>
+      <c r="GZ3" s="11"/>
+      <c r="HA3" s="12"/>
+      <c r="HB3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="HC3" s="14"/>
+      <c r="HD3" s="14"/>
+      <c r="HE3" s="15"/>
+      <c r="HF3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="HG3" s="11"/>
+      <c r="HH3" s="11"/>
+      <c r="HI3" s="12"/>
+    </row>
+    <row r="4" spans="1:217" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CW4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CX4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="DA4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DE4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="DI4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DJ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="DL4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DM4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="DQ4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DS4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="DT4" s="3"/>
+      <c r="DU4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DX4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="DY4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DZ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EA4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="EC4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="EE4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="EF4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="EG4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="EH4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EI4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="EJ4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="EK4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="EL4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="EM4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="EO4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EQ4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="ER4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="ES4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="EU4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="EV4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="EW4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EY4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FA4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="FC4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="FD4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="FE4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="FF4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FG4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="FH4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FI4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FJ4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="FK4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="FL4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="FM4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="FN4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FO4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="FP4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FQ4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FR4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="FS4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="FT4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="FU4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="FV4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FW4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="FX4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FY4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FZ4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="GA4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="GB4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="GC4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="GD4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="GE4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="GF4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GG4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GH4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="GI4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="GJ4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="GK4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="GL4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="GM4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="GN4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GO4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GP4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="GQ4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="GR4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="GS4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="GT4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="GU4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="GV4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GW4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GX4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="GY4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="GZ4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="HA4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="HB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="HC4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="HD4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="HE4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="HF4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="HG4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="HH4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="HI4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>AVERAGE(Dataset!B121:B125)</f>
+        <v>3417.7585999999997</v>
+      </c>
+      <c r="C5" s="6">
+        <f>AVERAGE(Dataset!C121:C125)</f>
+        <v>58.574354873485035</v>
+      </c>
+      <c r="D5" s="6">
+        <f>AVERAGE(Dataset!D121:D125)</f>
+        <v>14.491828464266046</v>
+      </c>
+      <c r="E5" s="6">
+        <f>AVERAGE(Dataset!E121:E125)</f>
+        <v>1.6299493221434616</v>
+      </c>
+      <c r="F5" s="6">
+        <f>AVERAGE(Dataset!F121:F125)</f>
+        <v>3417.7902000000004</v>
+      </c>
+      <c r="G5" s="6">
+        <f>AVERAGE(Dataset!G121:G125)</f>
+        <v>55.081289701288185</v>
+      </c>
+      <c r="H5" s="6">
+        <f>AVERAGE(Dataset!H121:H125)</f>
+        <v>35.021366529946775</v>
+      </c>
+      <c r="I5" s="6">
+        <f>AVERAGE(Dataset!I121:I125)</f>
+        <v>1.516175990736504</v>
+      </c>
+      <c r="J5" s="6">
+        <f>AVERAGE(Dataset!J121:J125)</f>
+        <v>3415.6410000000005</v>
+      </c>
+      <c r="K5" s="6">
+        <f>AVERAGE(Dataset!K121:K125)</f>
+        <v>56.891300409282259</v>
+      </c>
+      <c r="L5" s="6">
+        <f>AVERAGE(Dataset!L121:L125)</f>
+        <v>5.968718558406036</v>
+      </c>
+      <c r="M5" s="6">
+        <f>AVERAGE(Dataset!M121:M125)</f>
+        <v>1.8011748861440586</v>
+      </c>
+      <c r="N5" s="6">
+        <f>AVERAGE(Dataset!N121:N125)</f>
+        <v>3415.6449999999995</v>
+      </c>
+      <c r="O5" s="6">
+        <f>AVERAGE(Dataset!O121:O125)</f>
+        <v>48.932966443277692</v>
+      </c>
+      <c r="P5" s="6">
+        <f>AVERAGE(Dataset!P121:P125)</f>
+        <v>15.183051166854369</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>AVERAGE(Dataset!Q121:Q125)</f>
+        <v>1.6982204853174185</v>
+      </c>
+      <c r="R5" s="6">
+        <f>AVERAGE(Dataset!R121:R125)</f>
+        <v>3413.6874000000003</v>
+      </c>
+      <c r="S5" s="6">
+        <f>AVERAGE(Dataset!S121:S125)</f>
+        <v>55.302590389732288</v>
+      </c>
+      <c r="T5" s="6">
+        <f>AVERAGE(Dataset!T121:T125)</f>
+        <v>6.5185869734585014</v>
+      </c>
+      <c r="U5" s="6">
+        <f>AVERAGE(Dataset!U121:U125)</f>
+        <v>1.7146675250458887</v>
+      </c>
+      <c r="V5" s="6">
+        <f>AVERAGE(Dataset!V121:V125)</f>
+        <v>3413.7721999999994</v>
+      </c>
+      <c r="W5" s="6">
+        <f>AVERAGE(Dataset!W121:W125)</f>
+        <v>50.464841708528212</v>
+      </c>
+      <c r="X5" s="6">
+        <f>AVERAGE(Dataset!X121:X125)</f>
+        <v>27.455000703813177</v>
+      </c>
+      <c r="Y5" s="6">
+        <f>AVERAGE(Dataset!Y121:Y125)</f>
+        <v>1.8152478449363372</v>
+      </c>
+      <c r="Z5" s="6">
+        <f>AVERAGE(Dataset!Z121:Z125)</f>
+        <v>3415.8516000000004</v>
+      </c>
+      <c r="AA5" s="6">
+        <f>AVERAGE(Dataset!AA121:AA125)</f>
+        <v>66.83263487348087</v>
+      </c>
+      <c r="AB5" s="6">
+        <f>AVERAGE(Dataset!AB121:AB125)</f>
+        <v>26.841102021682833</v>
+      </c>
+      <c r="AC5" s="6">
+        <f>AVERAGE(Dataset!AC121:AC125)</f>
+        <v>1.0861597696260765</v>
+      </c>
+      <c r="AD5" s="6">
+        <f>AVERAGE(Dataset!AD121:AD125)</f>
+        <v>3415.7591999999995</v>
+      </c>
+      <c r="AE5" s="6">
+        <f>AVERAGE(Dataset!AE121:AE125)</f>
+        <v>66.426925976328249</v>
+      </c>
+      <c r="AF5" s="6">
+        <f>AVERAGE(Dataset!AF121:AF125)</f>
+        <v>27.800893820546577</v>
+      </c>
+      <c r="AG5" s="6">
+        <f>AVERAGE(Dataset!AG121:AG125)</f>
+        <v>1.1405413788200414</v>
+      </c>
+      <c r="AH5" s="6">
+        <f>AVERAGE(Dataset!AH121:AH125)</f>
+        <v>3420.3728000000001</v>
+      </c>
+      <c r="AI5" s="6">
+        <f>AVERAGE(Dataset!AI121:AI125)</f>
+        <v>63.514508492643344</v>
+      </c>
+      <c r="AJ5" s="6">
+        <f>AVERAGE(Dataset!AJ121:AJ125)</f>
+        <v>26.919789496020108</v>
+      </c>
+      <c r="AK5" s="6">
+        <f>AVERAGE(Dataset!AK121:AK125)</f>
+        <v>1.2503441874632941</v>
+      </c>
+      <c r="AL5" s="6">
+        <f>AVERAGE(Dataset!AL121:AL125)</f>
+        <v>3420.3830000000003</v>
+      </c>
+      <c r="AM5" s="6">
+        <f>AVERAGE(Dataset!AM121:AM125)</f>
+        <v>59.710738559346353</v>
+      </c>
+      <c r="AN5" s="6">
+        <f>AVERAGE(Dataset!AN121:AN125)</f>
+        <v>33.095466304598901</v>
+      </c>
+      <c r="AO5" s="6">
+        <f>AVERAGE(Dataset!AO121:AO125)</f>
+        <v>1.2323431481028375</v>
+      </c>
+      <c r="AP5" s="6">
+        <f>AVERAGE(Dataset!AP121:AP125)</f>
+        <v>3411.8919999999998</v>
+      </c>
+      <c r="AQ5" s="6">
+        <f>AVERAGE(Dataset!AQ121:AQ125)</f>
+        <v>64.019072991494795</v>
+      </c>
+      <c r="AR5" s="6">
+        <f>AVERAGE(Dataset!AR121:AR125)</f>
+        <v>31.622742534520434</v>
+      </c>
+      <c r="AS5" s="6">
+        <f>AVERAGE(Dataset!AS121:AS125)</f>
+        <v>1.2132037307417631</v>
+      </c>
+      <c r="AT5" s="6">
+        <f>AVERAGE(Dataset!AT121:AT125)</f>
+        <v>3411.7400000000002</v>
+      </c>
+      <c r="AU5" s="6">
+        <f>AVERAGE(Dataset!AU121:AU125)</f>
+        <v>58.404374546601481</v>
+      </c>
+      <c r="AV5" s="6">
+        <f>AVERAGE(Dataset!AV121:AV125)</f>
+        <v>43.345808462292887</v>
+      </c>
+      <c r="AW5" s="6">
+        <f>AVERAGE(Dataset!AW121:AW125)</f>
+        <v>1.1939645105210448</v>
+      </c>
+      <c r="AX5" s="6">
+        <f>AVERAGE(Dataset!AX121:AX125)</f>
+        <v>3420.0740000000005</v>
+      </c>
+      <c r="AY5" s="6">
+        <f>AVERAGE(Dataset!AY121:AY125)</f>
+        <v>51.923162963423906</v>
+      </c>
+      <c r="AZ5" s="6">
+        <f>AVERAGE(Dataset!AZ121:AZ125)</f>
+        <v>1.1087966054295029</v>
+      </c>
+      <c r="BA5" s="6">
+        <f>AVERAGE(Dataset!BA121:BA125)</f>
+        <v>0.64073270731069931</v>
+      </c>
+      <c r="BB5" s="6">
+        <f>AVERAGE(Dataset!BB121:BB125)</f>
+        <v>3419.8391999999999</v>
+      </c>
+      <c r="BC5" s="6">
+        <f>AVERAGE(Dataset!BC121:BC125)</f>
+        <v>50.138917386421625</v>
+      </c>
+      <c r="BD5" s="6">
+        <f>AVERAGE(Dataset!BD121:BD125)</f>
+        <v>20.925842431795139</v>
+      </c>
+      <c r="BE5" s="6">
+        <f>AVERAGE(Dataset!BE121:BE125)</f>
+        <v>0.62559598123553339</v>
+      </c>
+      <c r="BF5" s="6">
+        <f>AVERAGE(Dataset!BF121:BF125)</f>
+        <v>3416.7356</v>
+      </c>
+      <c r="BG5" s="6">
+        <f>AVERAGE(Dataset!BG121:BG125)</f>
+        <v>52.248553780592204</v>
+      </c>
+      <c r="BH5" s="6">
+        <f>AVERAGE(Dataset!BH121:BH125)</f>
+        <v>3.5295150439675815</v>
+      </c>
+      <c r="BI5" s="6">
+        <f>AVERAGE(Dataset!BI121:BI125)</f>
+        <v>0.58760410180943512</v>
+      </c>
+      <c r="BJ5" s="6">
+        <f>AVERAGE(Dataset!BJ121:BJ125)</f>
+        <v>3416.8137999999999</v>
+      </c>
+      <c r="BK5" s="6">
+        <f>AVERAGE(Dataset!BK121:BK125)</f>
+        <v>48.457117392556995</v>
+      </c>
+      <c r="BL5" s="6">
+        <f>AVERAGE(Dataset!BL121:BL125)</f>
+        <v>-22.981082165199606</v>
+      </c>
+      <c r="BM5" s="6">
+        <f>AVERAGE(Dataset!BM121:BM125)</f>
+        <v>0.61761358427185664</v>
+      </c>
+      <c r="BN5" s="6">
+        <f>AVERAGE(Dataset!BN121:BN125)</f>
+        <v>3419.1730000000002</v>
+      </c>
+      <c r="BO5" s="6">
+        <f>AVERAGE(Dataset!BO121:BO125)</f>
+        <v>51.87352519574771</v>
+      </c>
+      <c r="BP5" s="6">
+        <f>AVERAGE(Dataset!BP121:BP125)</f>
+        <v>6.4790326132729392</v>
+      </c>
+      <c r="BQ5" s="6">
+        <f>AVERAGE(Dataset!BQ121:BQ125)</f>
+        <v>0.58982254029559444</v>
+      </c>
+      <c r="BR5" s="6">
+        <f>AVERAGE(Dataset!BR121:BR125)</f>
+        <v>3419.0389999999998</v>
+      </c>
+      <c r="BS5" s="6">
+        <f>AVERAGE(Dataset!BS121:BS125)</f>
+        <v>47.987095275836296</v>
+      </c>
+      <c r="BT5" s="6">
+        <f>AVERAGE(Dataset!BT121:BT125)</f>
+        <v>27.802406707353452</v>
+      </c>
+      <c r="BU5" s="6">
+        <f>AVERAGE(Dataset!BU121:BU125)</f>
+        <v>0.63023217691400812</v>
+      </c>
+      <c r="BV5" s="6">
+        <f>AVERAGE(Dataset!BV121:BV125)</f>
+        <v>3421.1129999999998</v>
+      </c>
+      <c r="BW5" s="6">
+        <f>AVERAGE(Dataset!BW121:BW125)</f>
+        <v>61.683617099519225</v>
+      </c>
+      <c r="BX5" s="6">
+        <f>AVERAGE(Dataset!BX121:BX125)</f>
+        <v>31.533719282896186</v>
+      </c>
+      <c r="BY5" s="6">
+        <f>AVERAGE(Dataset!BY121:BY125)</f>
+        <v>1.0964750816451867</v>
+      </c>
+      <c r="BZ5" s="6">
+        <f>AVERAGE(Dataset!BZ121:BZ125)</f>
+        <v>3420.9578000000001</v>
+      </c>
+      <c r="CA5" s="6">
+        <f>AVERAGE(Dataset!CA121:CA125)</f>
+        <v>56.300818793486812</v>
+      </c>
+      <c r="CB5" s="6">
+        <f>AVERAGE(Dataset!CB121:CB125)</f>
+        <v>29.880671770490409</v>
+      </c>
+      <c r="CC5" s="6">
+        <f>AVERAGE(Dataset!CC121:CC125)</f>
+        <v>1.0817617887015403</v>
+      </c>
+      <c r="CD5" s="6">
+        <f>AVERAGE(Dataset!CD121:CD125)</f>
+        <v>3417.4929999999999</v>
+      </c>
+      <c r="CE5" s="6">
+        <f>AVERAGE(Dataset!CE121:CE125)</f>
+        <v>59.937117553843663</v>
+      </c>
+      <c r="CF5" s="6">
+        <f>AVERAGE(Dataset!CF121:CF125)</f>
+        <v>13.509650165742618</v>
+      </c>
+      <c r="CG5" s="6">
+        <f>AVERAGE(Dataset!CG121:CG125)</f>
+        <v>1.0699428993881592</v>
+      </c>
+      <c r="CH5" s="6">
+        <f>AVERAGE(Dataset!CH121:CH125)</f>
+        <v>3417.4055999999996</v>
+      </c>
+      <c r="CI5" s="6">
+        <f>AVERAGE(Dataset!CI121:CI125)</f>
+        <v>56.161059885170516</v>
+      </c>
+      <c r="CJ5" s="6">
+        <f>AVERAGE(Dataset!CJ121:CJ125)</f>
+        <v>29.602227004096324</v>
+      </c>
+      <c r="CK5" s="6">
+        <f>AVERAGE(Dataset!CK121:CK125)</f>
+        <v>1.092375483224534</v>
+      </c>
+      <c r="CL5" s="6">
+        <f>AVERAGE(Dataset!CL121:CL125)</f>
+        <v>3413.9868000000001</v>
+      </c>
+      <c r="CM5" s="6">
+        <f>AVERAGE(Dataset!CM121:CM125)</f>
+        <v>52.081963128317206</v>
+      </c>
+      <c r="CN5" s="6">
+        <f>AVERAGE(Dataset!CN121:CN125)</f>
+        <v>0.496181711671837</v>
+      </c>
+      <c r="CO5" s="6">
+        <f>AVERAGE(Dataset!CO121:CO125)</f>
+        <v>1.1668939559090643</v>
+      </c>
+      <c r="CP5" s="6">
+        <f>AVERAGE(Dataset!CP121:CP125)</f>
+        <v>3413.9508000000001</v>
+      </c>
+      <c r="CQ5" s="6">
+        <f>AVERAGE(Dataset!CQ121:CQ125)</f>
+        <v>45.29996471131237</v>
+      </c>
+      <c r="CR5" s="6">
+        <f>AVERAGE(Dataset!CR121:CR125)</f>
+        <v>20.766982071914139</v>
+      </c>
+      <c r="CS5" s="6">
+        <f>AVERAGE(Dataset!CS121:CS125)</f>
+        <v>1.3262315836703766</v>
+      </c>
+      <c r="CT5" s="6">
+        <f>AVERAGE(Dataset!CT121:CT125)</f>
+        <v>3417.8715999999999</v>
+      </c>
+      <c r="CU5" s="6">
+        <f>AVERAGE(Dataset!CU121:CU125)</f>
+        <v>55.223475881513039</v>
+      </c>
+      <c r="CV5" s="6">
+        <f>AVERAGE(Dataset!CV121:CV125)</f>
+        <v>23.279204189133583</v>
+      </c>
+      <c r="CW5" s="6">
+        <f>AVERAGE(Dataset!CW121:CW125)</f>
+        <v>1.5047833289094252</v>
+      </c>
+      <c r="CX5" s="6">
+        <f>AVERAGE(Dataset!CX121:CX125)</f>
+        <v>3417.8908000000001</v>
+      </c>
+      <c r="CY5" s="6">
+        <f>AVERAGE(Dataset!CY121:CY125)</f>
+        <v>53.296635694614473</v>
+      </c>
+      <c r="CZ5" s="6">
+        <f>AVERAGE(Dataset!CZ121:CZ125)</f>
+        <v>21.761508863573912</v>
+      </c>
+      <c r="DA5" s="6">
+        <f>AVERAGE(Dataset!DA121:DA125)</f>
+        <v>1.3964073901831362</v>
+      </c>
+      <c r="DB5" s="6">
+        <f>AVERAGE(Dataset!DB121:DB125)</f>
+        <v>3415.6419999999998</v>
+      </c>
+      <c r="DC5" s="6">
+        <f>AVERAGE(Dataset!DC121:DC125)</f>
+        <v>55.880390699359147</v>
+      </c>
+      <c r="DD5" s="6">
+        <f>AVERAGE(Dataset!DD121:DD125)</f>
+        <v>17.364962970412297</v>
+      </c>
+      <c r="DE5" s="6">
+        <f>AVERAGE(Dataset!DE121:DE125)</f>
+        <v>1.4894113714579826</v>
+      </c>
+      <c r="DF5" s="6">
+        <f>AVERAGE(Dataset!DF121:DF125)</f>
+        <v>3415.5350000000008</v>
+      </c>
+      <c r="DG5" s="6">
+        <f>AVERAGE(Dataset!DG121:DG125)</f>
+        <v>51.626410583268161</v>
+      </c>
+      <c r="DH5" s="6">
+        <f>AVERAGE(Dataset!DH121:DH125)</f>
+        <v>18.038820089376575</v>
+      </c>
+      <c r="DI5" s="6">
+        <f>AVERAGE(Dataset!DI121:DI125)</f>
+        <v>1.3942016320232153</v>
+      </c>
+      <c r="DJ5" s="6">
+        <f>AVERAGE(Dataset!DJ121:DJ125)</f>
+        <v>3416.8571999999999</v>
+      </c>
+      <c r="DK5" s="6">
+        <f>AVERAGE(Dataset!DK121:DK125)</f>
+        <v>54.968225357169842</v>
+      </c>
+      <c r="DL5" s="6">
+        <f>AVERAGE(Dataset!DL121:DL125)</f>
+        <v>18.380166221947825</v>
+      </c>
+      <c r="DM5" s="6">
+        <f>AVERAGE(Dataset!DM121:DM125)</f>
+        <v>1.4878892034020179</v>
+      </c>
+      <c r="DN5" s="6">
+        <f>AVERAGE(Dataset!DN121:DN125)</f>
+        <v>3416.9934000000003</v>
+      </c>
+      <c r="DO5" s="6">
+        <f>AVERAGE(Dataset!DO121:DO125)</f>
+        <v>50.049704849332855</v>
+      </c>
+      <c r="DP5" s="6">
+        <f>AVERAGE(Dataset!DP121:DP125)</f>
+        <v>28.198877146651235</v>
+      </c>
+      <c r="DQ5" s="6">
+        <f>AVERAGE(Dataset!DQ121:DQ125)</f>
+        <v>1.3469130595062964</v>
+      </c>
+      <c r="DR5" s="6">
+        <f>AVERAGE(Dataset!DR121:DR125)</f>
+        <v>3421.4173999999998</v>
+      </c>
+      <c r="DS5" s="6">
+        <f>AVERAGE(Dataset!DS121:DS125)</f>
+        <v>59.404809459116919</v>
+      </c>
+      <c r="DT5" s="6">
+        <f>AVERAGE(Dataset!DT121:DT125)</f>
+        <v>22.882499603702751</v>
+      </c>
+      <c r="DU5" s="6">
+        <f>AVERAGE(Dataset!DU121:DU125)</f>
+        <v>4.927920469206148</v>
+      </c>
+      <c r="DV5" s="6">
+        <f>AVERAGE(Dataset!DV121:DV125)</f>
+        <v>3421.4182000000001</v>
+      </c>
+      <c r="DW5" s="6">
+        <f>AVERAGE(Dataset!DW121:DW125)</f>
+        <v>54.46064868938862</v>
+      </c>
+      <c r="DX5" s="6">
+        <f>AVERAGE(Dataset!DX121:DX125)</f>
+        <v>38.18862244700081</v>
+      </c>
+      <c r="DY5" s="6">
+        <f>AVERAGE(Dataset!DY121:DY125)</f>
+        <v>4.7877631177657944</v>
+      </c>
+      <c r="DZ5" s="6">
+        <f>AVERAGE(Dataset!DZ121:DZ125)</f>
+        <v>3418.3561999999997</v>
+      </c>
+      <c r="EA5" s="6">
+        <f>AVERAGE(Dataset!EA121:EA125)</f>
+        <v>60.870227035540736</v>
+      </c>
+      <c r="EB5" s="6">
+        <f>AVERAGE(Dataset!EB121:EB125)</f>
+        <v>19.321058940376904</v>
+      </c>
+      <c r="EC5" s="6">
+        <f>AVERAGE(Dataset!EC121:EC125)</f>
+        <v>5.1421052143150554</v>
+      </c>
+      <c r="ED5" s="6">
+        <f>AVERAGE(Dataset!ED121:ED125)</f>
+        <v>3418.4216000000001</v>
+      </c>
+      <c r="EE5" s="6">
+        <f>AVERAGE(Dataset!EE121:EE125)</f>
+        <v>53.440749126585004</v>
+      </c>
+      <c r="EF5" s="6">
+        <f>AVERAGE(Dataset!EF121:EF125)</f>
+        <v>36.169709301768179</v>
+      </c>
+      <c r="EG5" s="6">
+        <f>AVERAGE(Dataset!EG121:EG125)</f>
+        <v>4.6193870895679101</v>
+      </c>
+      <c r="EH5" s="6">
+        <f>AVERAGE(Dataset!EH121:EH125)</f>
+        <v>3415.6202000000003</v>
+      </c>
+      <c r="EI5" s="6">
+        <f>AVERAGE(Dataset!EI121:EI125)</f>
+        <v>60.042286338840185</v>
+      </c>
+      <c r="EJ5" s="6">
+        <f>AVERAGE(Dataset!EJ121:EJ125)</f>
+        <v>26.451754548277734</v>
+      </c>
+      <c r="EK5" s="6">
+        <f>AVERAGE(Dataset!EK121:EK125)</f>
+        <v>4.7028140303482271</v>
+      </c>
+      <c r="EL5" s="6">
+        <f>AVERAGE(Dataset!EL121:EL125)</f>
+        <v>3415.4702000000007</v>
+      </c>
+      <c r="EM5" s="6">
+        <f>AVERAGE(Dataset!EM121:EM125)</f>
+        <v>48.770307424000201</v>
+      </c>
+      <c r="EN5" s="6">
+        <f>AVERAGE(Dataset!EN121:EN125)</f>
+        <v>37.745731100449554</v>
+      </c>
+      <c r="EO5" s="6">
+        <f>AVERAGE(Dataset!EO121:EO125)</f>
+        <v>4.365716695666249</v>
+      </c>
+      <c r="EP5" s="6">
+        <f>AVERAGE(Dataset!EP121:EP125)</f>
+        <v>3414.7398000000003</v>
+      </c>
+      <c r="EQ5" s="6">
+        <f>AVERAGE(Dataset!EQ121:EQ125)</f>
+        <v>58.134481602743861</v>
+      </c>
+      <c r="ER5" s="6">
+        <f>AVERAGE(Dataset!ER121:ER125)</f>
+        <v>16.399209843274061</v>
+      </c>
+      <c r="ES5" s="6">
+        <f>AVERAGE(Dataset!ES121:ES125)</f>
+        <v>2.1952338566621696</v>
+      </c>
+      <c r="ET5" s="6">
+        <f>AVERAGE(Dataset!ET121:ET125)</f>
+        <v>3414.7158000000004</v>
+      </c>
+      <c r="EU5" s="6">
+        <f>AVERAGE(Dataset!EU121:EU125)</f>
+        <v>52.106829707100793</v>
+      </c>
+      <c r="EV5" s="6">
+        <f>AVERAGE(Dataset!EV121:EV125)</f>
+        <v>34.475279069760248</v>
+      </c>
+      <c r="EW5" s="6">
+        <f>AVERAGE(Dataset!EW121:EW125)</f>
+        <v>2.0715211338611939</v>
+      </c>
+      <c r="EX5" s="6">
+        <f>AVERAGE(Dataset!EX121:EX125)</f>
+        <v>3414.1133999999997</v>
+      </c>
+      <c r="EY5" s="6">
+        <f>AVERAGE(Dataset!EY121:EY125)</f>
+        <v>59.386793241191334</v>
+      </c>
+      <c r="EZ5" s="6">
+        <f>AVERAGE(Dataset!EZ121:EZ125)</f>
+        <v>6.4666065836512683</v>
+      </c>
+      <c r="FA5" s="6">
+        <f>AVERAGE(Dataset!FA121:FA125)</f>
+        <v>2.1271078313717995</v>
+      </c>
+      <c r="FB5" s="6">
+        <f>AVERAGE(Dataset!FB121:FB125)</f>
+        <v>3414.2056000000002</v>
+      </c>
+      <c r="FC5" s="6">
+        <f>AVERAGE(Dataset!FC121:FC125)</f>
+        <v>55.345799629058106</v>
+      </c>
+      <c r="FD5" s="6">
+        <f>AVERAGE(Dataset!FD121:FD125)</f>
+        <v>22.903804441650447</v>
+      </c>
+      <c r="FE5" s="6">
+        <f>AVERAGE(Dataset!FE121:FE125)</f>
+        <v>2.1174261302961686</v>
+      </c>
+      <c r="FF5" s="6">
+        <f>AVERAGE(Dataset!FF121:FF125)</f>
+        <v>3417.6178</v>
+      </c>
+      <c r="FG5" s="6">
+        <f>AVERAGE(Dataset!FG121:FG125)</f>
+        <v>59.816499926536721</v>
+      </c>
+      <c r="FH5" s="6">
+        <f>AVERAGE(Dataset!FH121:FH125)</f>
+        <v>7.5277645955652206</v>
+      </c>
+      <c r="FI5" s="6">
+        <f>AVERAGE(Dataset!FI121:FI125)</f>
+        <v>2.1833853494973972</v>
+      </c>
+      <c r="FJ5" s="6">
+        <f>AVERAGE(Dataset!FJ121:FJ125)</f>
+        <v>3417.8048000000003</v>
+      </c>
+      <c r="FK5" s="6">
+        <f>AVERAGE(Dataset!FK121:FK125)</f>
+        <v>58.37688573112306</v>
+      </c>
+      <c r="FL5" s="6">
+        <f>AVERAGE(Dataset!FL121:FL125)</f>
+        <v>17.624699097488886</v>
+      </c>
+      <c r="FM5" s="6">
+        <f>AVERAGE(Dataset!FM121:FM125)</f>
+        <v>2.1577840165902473</v>
+      </c>
+      <c r="FN5" s="6">
+        <f>AVERAGE(Dataset!FN121:FN125)</f>
+        <v>3415.1711999999998</v>
+      </c>
+      <c r="FO5" s="6">
+        <f>AVERAGE(Dataset!FO121:FO125)</f>
+        <v>58.66274624515188</v>
+      </c>
+      <c r="FP5" s="6">
+        <f>AVERAGE(Dataset!FP121:FP125)</f>
+        <v>8.3545525229702875</v>
+      </c>
+      <c r="FQ5" s="6">
+        <f>AVERAGE(Dataset!FQ121:FQ125)</f>
+        <v>2.1054705463652392</v>
+      </c>
+      <c r="FR5" s="6">
+        <f>AVERAGE(Dataset!FR121:FR125)</f>
+        <v>3415.1578</v>
+      </c>
+      <c r="FS5" s="6">
+        <f>AVERAGE(Dataset!FS121:FS125)</f>
+        <v>60.352268130608422</v>
+      </c>
+      <c r="FT5" s="6">
+        <f>AVERAGE(Dataset!FT121:FT125)</f>
+        <v>23.038562169647957</v>
+      </c>
+      <c r="FU5" s="6">
+        <f>AVERAGE(Dataset!FU121:FU125)</f>
+        <v>2.0838080920714743</v>
+      </c>
+      <c r="FV5" s="6">
+        <f>AVERAGE(Dataset!FV121:FV125)</f>
+        <v>3420.2087999999994</v>
+      </c>
+      <c r="FW5" s="6">
+        <f>AVERAGE(Dataset!FW121:FW125)</f>
+        <v>58.518980486568104</v>
+      </c>
+      <c r="FX5" s="6">
+        <f>AVERAGE(Dataset!FX121:FX125)</f>
+        <v>2.8698726095610594</v>
+      </c>
+      <c r="FY5" s="6">
+        <f>AVERAGE(Dataset!FY121:FY125)</f>
+        <v>2.1747802620642953</v>
+      </c>
+      <c r="FZ5" s="6">
+        <f>AVERAGE(Dataset!FZ121:FZ125)</f>
+        <v>3420.2535999999991</v>
+      </c>
+      <c r="GA5" s="6">
+        <f>AVERAGE(Dataset!GA121:GA125)</f>
+        <v>56.755376215015403</v>
+      </c>
+      <c r="GB5" s="6">
+        <f>AVERAGE(Dataset!GB121:GB125)</f>
+        <v>26.97718507832305</v>
+      </c>
+      <c r="GC5" s="6">
+        <f>AVERAGE(Dataset!GC121:GC125)</f>
+        <v>2.081260781769986</v>
+      </c>
+      <c r="GD5" s="6">
+        <f>AVERAGE(Dataset!GD121:GD125)</f>
+        <v>3420.8945999999996</v>
+      </c>
+      <c r="GE5" s="6">
+        <f>AVERAGE(Dataset!GE121:GE125)</f>
+        <v>57.215213484850651</v>
+      </c>
+      <c r="GF5" s="6">
+        <f>AVERAGE(Dataset!GF121:GF125)</f>
+        <v>2.4724232215679103</v>
+      </c>
+      <c r="GG5" s="6">
+        <f>AVERAGE(Dataset!GG121:GG125)</f>
+        <v>2.0682625052755985</v>
+      </c>
+      <c r="GH5" s="6">
+        <f>AVERAGE(Dataset!GH121:GH125)</f>
+        <v>3420.8088000000002</v>
+      </c>
+      <c r="GI5" s="6">
+        <f>AVERAGE(Dataset!GI121:GI125)</f>
+        <v>55.019224087060728</v>
+      </c>
+      <c r="GJ5" s="6">
+        <f>AVERAGE(Dataset!GJ121:GJ125)</f>
+        <v>18.469290861655384</v>
+      </c>
+      <c r="GK5" s="6">
+        <f>AVERAGE(Dataset!GK121:GK125)</f>
+        <v>1.9858104463769819</v>
+      </c>
+      <c r="GL5" s="6">
+        <f>AVERAGE(Dataset!GL121:GL125)</f>
+        <v>3413.6309999999999</v>
+      </c>
+      <c r="GM5" s="6">
+        <f>AVERAGE(Dataset!GM121:GM125)</f>
+        <v>62.072599792333335</v>
+      </c>
+      <c r="GN5" s="6">
+        <f>AVERAGE(Dataset!GN121:GN125)</f>
+        <v>35.122947871512665</v>
+      </c>
+      <c r="GO5" s="6">
+        <f>AVERAGE(Dataset!GO121:GO125)</f>
+        <v>3.4447036939423112</v>
+      </c>
+      <c r="GP5" s="6">
+        <f>AVERAGE(Dataset!GP121:GP125)</f>
+        <v>3413.6246000000001</v>
+      </c>
+      <c r="GQ5" s="6">
+        <f>AVERAGE(Dataset!GQ121:GQ125)</f>
+        <v>60.904197074335528</v>
+      </c>
+      <c r="GR5" s="6">
+        <f>AVERAGE(Dataset!GR121:GR125)</f>
+        <v>17.019879825077034</v>
+      </c>
+      <c r="GS5" s="6">
+        <f>AVERAGE(Dataset!GS121:GS125)</f>
+        <v>3.3265759965659996</v>
+      </c>
+      <c r="GT5" s="6">
+        <f>AVERAGE(Dataset!GT121:GT125)</f>
+        <v>3417.2771999999995</v>
+      </c>
+      <c r="GU5" s="6">
+        <f>AVERAGE(Dataset!GU121:GU125)</f>
+        <v>66.013478293063727</v>
+      </c>
+      <c r="GV5" s="6">
+        <f>AVERAGE(Dataset!GV121:GV125)</f>
+        <v>21.438275925244312</v>
+      </c>
+      <c r="GW5" s="6">
+        <f>AVERAGE(Dataset!GW121:GW125)</f>
+        <v>3.5077001422272334</v>
+      </c>
+      <c r="GX5" s="6">
+        <f>AVERAGE(Dataset!GX121:GX125)</f>
+        <v>3417.3919999999998</v>
+      </c>
+      <c r="GY5" s="6">
+        <f>AVERAGE(Dataset!GY121:GY125)</f>
+        <v>63.844698281870976</v>
+      </c>
+      <c r="GZ5" s="6">
+        <f>AVERAGE(Dataset!GZ121:GZ125)</f>
+        <v>13.017699505751086</v>
+      </c>
+      <c r="HA5" s="6">
+        <f>AVERAGE(Dataset!HA121:HA125)</f>
+        <v>3.2864104854362521</v>
+      </c>
+      <c r="HB5" s="6">
+        <f>AVERAGE(Dataset!HB121:HB125)</f>
+        <v>3422.4256</v>
+      </c>
+      <c r="HC5" s="6">
+        <f>AVERAGE(Dataset!HC121:HC125)</f>
+        <v>63.556777054020884</v>
+      </c>
+      <c r="HD5" s="6">
+        <f>AVERAGE(Dataset!HD121:HD125)</f>
+        <v>16.115071451056959</v>
+      </c>
+      <c r="HE5" s="6">
+        <f>AVERAGE(Dataset!HE121:HE125)</f>
+        <v>3.514043069340429</v>
+      </c>
+      <c r="HF5" s="6">
+        <f>AVERAGE(Dataset!HF121:HF125)</f>
+        <v>3422.4512000000004</v>
+      </c>
+      <c r="HG5" s="6">
+        <f>AVERAGE(Dataset!HG121:HG125)</f>
+        <v>60.827925482491878</v>
+      </c>
+      <c r="HH5" s="6">
+        <f>AVERAGE(Dataset!HH121:HH125)</f>
+        <v>16.743224612242482</v>
+      </c>
+      <c r="HI5" s="6">
+        <f>AVERAGE(Dataset!HI121:HI125)</f>
+        <v>3.3958838998289496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <f>J2</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <f>R2</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <f>J2</f>
+        <v>2</v>
+      </c>
+      <c r="N8" s="6">
+        <f>R2</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f>J2</f>
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <f>R2</f>
+        <v>3</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
+      <c r="CH8" s="6"/>
+      <c r="CI8" s="6"/>
+      <c r="CJ8" s="6"/>
+      <c r="CK8" s="6"/>
+      <c r="CL8" s="6"/>
+      <c r="CM8" s="6"/>
+      <c r="CN8" s="6"/>
+      <c r="CO8" s="6"/>
+      <c r="CP8" s="6"/>
+      <c r="CQ8" s="6"/>
+      <c r="CR8" s="6"/>
+      <c r="CS8" s="6"/>
+      <c r="CT8" s="6"/>
+      <c r="CU8" s="6"/>
+      <c r="CV8" s="6"/>
+      <c r="CW8" s="6"/>
+      <c r="CX8" s="6"/>
+      <c r="CY8" s="6"/>
+      <c r="CZ8" s="6"/>
+      <c r="DA8" s="6"/>
+      <c r="DB8" s="6"/>
+      <c r="DC8" s="6"/>
+      <c r="DD8" s="6"/>
+      <c r="DE8" s="6"/>
+      <c r="DF8" s="6"/>
+      <c r="DG8" s="6"/>
+      <c r="DH8" s="6"/>
+      <c r="DI8" s="6"/>
+      <c r="DJ8" s="6"/>
+      <c r="DK8" s="6"/>
+      <c r="DL8" s="6"/>
+      <c r="DM8" s="6"/>
+      <c r="DN8" s="6"/>
+      <c r="DO8" s="6"/>
+      <c r="DP8" s="6"/>
+      <c r="DQ8" s="6"/>
+      <c r="DR8" s="6"/>
+      <c r="DS8" s="6"/>
+      <c r="DT8" s="6"/>
+      <c r="DU8" s="6"/>
+      <c r="DV8" s="6"/>
+      <c r="DW8" s="6"/>
+      <c r="DX8" s="6"/>
+      <c r="DY8" s="6"/>
+      <c r="DZ8" s="6"/>
+      <c r="EA8" s="6"/>
+      <c r="EB8" s="6"/>
+      <c r="EC8" s="6"/>
+      <c r="ED8" s="6"/>
+      <c r="EE8" s="6"/>
+      <c r="EF8" s="6"/>
+      <c r="EG8" s="6"/>
+      <c r="EH8" s="6"/>
+      <c r="EI8" s="6"/>
+      <c r="EJ8" s="6"/>
+      <c r="EK8" s="6"/>
+      <c r="EL8" s="6"/>
+      <c r="EM8" s="6"/>
+      <c r="EN8" s="6"/>
+      <c r="EO8" s="6"/>
+      <c r="EP8" s="6"/>
+      <c r="EQ8" s="6"/>
+      <c r="ER8" s="6"/>
+      <c r="ES8" s="6"/>
+      <c r="ET8" s="6"/>
+      <c r="EU8" s="6"/>
+      <c r="EV8" s="6"/>
+      <c r="EW8" s="6"/>
+      <c r="EX8" s="6"/>
+      <c r="EY8" s="6"/>
+      <c r="EZ8" s="6"/>
+      <c r="FA8" s="6"/>
+      <c r="FB8" s="6"/>
+      <c r="FC8" s="6"/>
+      <c r="FD8" s="6"/>
+      <c r="FE8" s="6"/>
+      <c r="FF8" s="6"/>
+      <c r="FG8" s="6"/>
+      <c r="FH8" s="6"/>
+      <c r="FI8" s="6"/>
+      <c r="FJ8" s="6"/>
+      <c r="FK8" s="6"/>
+      <c r="FL8" s="6"/>
+      <c r="FM8" s="6"/>
+      <c r="FN8" s="6"/>
+      <c r="FO8" s="6"/>
+      <c r="FP8" s="6"/>
+      <c r="FQ8" s="6"/>
+      <c r="FR8" s="6"/>
+      <c r="FS8" s="6"/>
+      <c r="FT8" s="6"/>
+      <c r="FU8" s="6"/>
+      <c r="FV8" s="6"/>
+      <c r="FW8" s="6"/>
+      <c r="FX8" s="6"/>
+      <c r="FY8" s="6"/>
+      <c r="FZ8" s="6"/>
+      <c r="GA8" s="6"/>
+      <c r="GB8" s="6"/>
+      <c r="GC8" s="6"/>
+      <c r="GD8" s="6"/>
+      <c r="GE8" s="6"/>
+      <c r="GF8" s="6"/>
+      <c r="GG8" s="6"/>
+      <c r="GH8" s="6"/>
+      <c r="GI8" s="6"/>
+      <c r="GJ8" s="6"/>
+      <c r="GK8" s="6"/>
+      <c r="GL8" s="6"/>
+      <c r="GM8" s="6"/>
+      <c r="GN8" s="6"/>
+      <c r="GO8" s="6"/>
+      <c r="GP8" s="6"/>
+      <c r="GQ8" s="6"/>
+      <c r="GR8" s="6"/>
+      <c r="GS8" s="6"/>
+      <c r="GT8" s="6"/>
+      <c r="GU8" s="6"/>
+      <c r="GV8" s="6"/>
+      <c r="GW8" s="6"/>
+      <c r="GX8" s="6"/>
+      <c r="GY8" s="6"/>
+      <c r="GZ8" s="6"/>
+      <c r="HA8" s="6"/>
+      <c r="HB8" s="6"/>
+      <c r="HC8" s="6"/>
+      <c r="HD8" s="6"/>
+      <c r="HE8" s="6"/>
+      <c r="HF8" s="6"/>
+      <c r="HG8" s="6"/>
+      <c r="HH8" s="6"/>
+      <c r="HI8" s="6"/>
+    </row>
+    <row r="9" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <f>B1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C5</f>
+        <v>58.574354873485035</v>
+      </c>
+      <c r="F9" s="6">
+        <f>K5</f>
+        <v>56.891300409282259</v>
+      </c>
+      <c r="G9" s="6">
+        <f>S5</f>
+        <v>55.302590389732288</v>
+      </c>
+      <c r="H9" s="6">
+        <f>AVERAGE(E9:G9)</f>
+        <v>56.922748557499858</v>
+      </c>
+      <c r="I9" s="6">
+        <f>STDEV(E9:G9)</f>
+        <v>1.6361089354948855</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6">
+        <f>D5</f>
+        <v>14.491828464266046</v>
+      </c>
+      <c r="M9" s="6">
+        <f>L5</f>
+        <v>5.968718558406036</v>
+      </c>
+      <c r="N9" s="6">
+        <f>T5</f>
+        <v>6.5185869734585014</v>
+      </c>
+      <c r="O9" s="6">
+        <f>AVERAGE(L9:N9)</f>
+        <v>8.9930446653768605</v>
+      </c>
+      <c r="P9" s="6">
+        <f>STDEV(L9:N9)</f>
+        <v>4.7700163803348445</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <f>E5</f>
+        <v>1.6299493221434616</v>
+      </c>
+      <c r="T9">
+        <f>M5</f>
+        <v>1.8011748861440586</v>
+      </c>
+      <c r="U9">
+        <f>U5</f>
+        <v>1.7146675250458887</v>
+      </c>
+      <c r="V9" s="6">
+        <f>AVERAGE(S9:U9)</f>
+        <v>1.7152639111111363</v>
+      </c>
+      <c r="W9" s="6">
+        <f>STDEV(S9:U9)</f>
+        <v>8.5614339915021001E-2</v>
+      </c>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="6"/>
+      <c r="CR9" s="6"/>
+      <c r="CS9" s="6"/>
+      <c r="DP9" s="6"/>
+      <c r="DQ9" s="6"/>
+      <c r="EN9" s="6"/>
+      <c r="EO9" s="6"/>
+      <c r="FL9" s="6"/>
+      <c r="FM9" s="6"/>
+      <c r="GJ9" s="6"/>
+      <c r="GK9" s="6"/>
+      <c r="HH9" s="6"/>
+      <c r="HI9" s="6"/>
+    </row>
+    <row r="10" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <f>B1</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <f>G5</f>
+        <v>55.081289701288185</v>
+      </c>
+      <c r="F10" s="6">
+        <f>O5</f>
+        <v>48.932966443277692</v>
+      </c>
+      <c r="G10" s="6">
+        <f>S5</f>
+        <v>55.302590389732288</v>
+      </c>
+      <c r="H10" s="6">
+        <f>AVERAGE(E10:G10)</f>
+        <v>53.105615511432724</v>
+      </c>
+      <c r="I10" s="6">
+        <f>STDEV(E10:G10)</f>
+        <v>3.6153137738179426</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6">
+        <f>H5</f>
+        <v>35.021366529946775</v>
+      </c>
+      <c r="M10" s="6">
+        <f>P5</f>
+        <v>15.183051166854369</v>
+      </c>
+      <c r="N10" s="6">
+        <f>X5</f>
+        <v>27.455000703813177</v>
+      </c>
+      <c r="O10" s="6">
+        <f>AVERAGE(L10:N10)</f>
+        <v>25.886472800204775</v>
+      </c>
+      <c r="P10" s="6">
+        <f>STDEV(L10:N10)</f>
+        <v>10.011738058383047</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <f>I5</f>
+        <v>1.516175990736504</v>
+      </c>
+      <c r="T10">
+        <f>Q5</f>
+        <v>1.6982204853174185</v>
+      </c>
+      <c r="U10">
+        <f>Y5</f>
+        <v>1.8152478449363372</v>
+      </c>
+      <c r="V10" s="6">
+        <f>AVERAGE(S10:U10)</f>
+        <v>1.6765481069967532</v>
+      </c>
+      <c r="W10" s="6">
+        <f>STDEV(S10:U10)</f>
+        <v>0.15070919839275604</v>
+      </c>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="BT10" s="6"/>
+      <c r="BU10" s="6"/>
+      <c r="CR10" s="6"/>
+      <c r="CS10" s="6"/>
+      <c r="DP10" s="6"/>
+      <c r="DQ10" s="6"/>
+      <c r="EN10" s="6"/>
+      <c r="EO10" s="6"/>
+      <c r="FL10" s="6"/>
+      <c r="FM10" s="6"/>
+      <c r="GJ10" s="6"/>
+      <c r="GK10" s="6"/>
+      <c r="HH10" s="6"/>
+      <c r="HI10" s="6"/>
+    </row>
+    <row r="11" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <f>Z1</f>
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <f>AA5</f>
+        <v>66.83263487348087</v>
+      </c>
+      <c r="F11" s="6">
+        <f>AI5</f>
+        <v>63.514508492643344</v>
+      </c>
+      <c r="G11" s="6">
+        <f>AQ5</f>
+        <v>64.019072991494795</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ref="H11:H12" si="0">AVERAGE(E11:G11)</f>
+        <v>64.788738785873008</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" ref="I11:I12" si="1">STDEV(E11:G11)</f>
+        <v>1.787954067105574</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6">
+        <f>AB5</f>
+        <v>26.841102021682833</v>
+      </c>
+      <c r="M11" s="6">
+        <f>AJ5</f>
+        <v>26.919789496020108</v>
+      </c>
+      <c r="N11" s="6">
+        <f>AR5</f>
+        <v>31.622742534520434</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" ref="O11:O12" si="2">AVERAGE(L11:N11)</f>
+        <v>28.461211350741127</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" ref="P11:P12" si="3">STDEV(L11:N11)</f>
+        <v>2.7382489841431776</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="6">
+        <f>AC5</f>
+        <v>1.0861597696260765</v>
+      </c>
+      <c r="T11" s="6">
+        <f>AK5</f>
+        <v>1.2503441874632941</v>
+      </c>
+      <c r="U11" s="6">
+        <f>AS5</f>
+        <v>1.2132037307417631</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" ref="V11:V12" si="4">AVERAGE(S11:U11)</f>
+        <v>1.1832358959437113</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" ref="W11:W12" si="5">STDEV(S11:U11)</f>
+        <v>8.6096945979512021E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <f>Z1</f>
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <f>AE5</f>
+        <v>66.426925976328249</v>
+      </c>
+      <c r="F12" s="6">
+        <f>AM5</f>
+        <v>59.710738559346353</v>
+      </c>
+      <c r="G12" s="6">
+        <f>AQ5</f>
+        <v>64.019072991494795</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>63.385579175723137</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>3.402613578702729</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="6">
+        <f>AF5</f>
+        <v>27.800893820546577</v>
+      </c>
+      <c r="M12" s="6">
+        <f>AN5</f>
+        <v>33.095466304598901</v>
+      </c>
+      <c r="N12" s="6">
+        <f>AV5</f>
+        <v>43.345808462292887</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="2"/>
+        <v>34.747389529146119</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9030203441243767</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="6">
+        <f>AG5</f>
+        <v>1.1405413788200414</v>
+      </c>
+      <c r="T12" s="6">
+        <f>AO5</f>
+        <v>1.2323431481028375</v>
+      </c>
+      <c r="U12" s="6">
+        <f>AW5</f>
+        <v>1.1939645105210448</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1889496791479746</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="5"/>
+        <v>4.6105884777739393E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <f>AX1</f>
+        <v>47</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <f>AY5</f>
+        <v>51.923162963423906</v>
+      </c>
+      <c r="F13" s="6">
+        <f>BG5</f>
+        <v>52.248553780592204</v>
+      </c>
+      <c r="G13" s="6">
+        <f>BO5</f>
+        <v>51.87352519574771</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ref="H13:H14" si="6">AVERAGE(E13:G13)</f>
+        <v>52.01508064658794</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" ref="I13:I14" si="7">STDEV(E13:G13)</f>
+        <v>0.20371120543872556</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="6">
+        <f>AZ5</f>
+        <v>1.1087966054295029</v>
+      </c>
+      <c r="M13" s="6">
+        <f>BH5</f>
+        <v>3.5295150439675815</v>
+      </c>
+      <c r="N13" s="6">
+        <f>BP5</f>
+        <v>6.4790326132729392</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" ref="O13:O14" si="8">AVERAGE(L13:N13)</f>
+        <v>3.7057814208900077</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" ref="P13:P14" si="9">STDEV(L13:N13)</f>
+        <v>2.689453675323219</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="6">
+        <f>BA5</f>
+        <v>0.64073270731069931</v>
+      </c>
+      <c r="T13" s="6">
+        <f>BI5</f>
+        <v>0.58760410180943512</v>
+      </c>
+      <c r="U13" s="6">
+        <f>BQ5</f>
+        <v>0.58982254029559444</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" ref="V13:V14" si="10">AVERAGE(S13:U13)</f>
+        <v>0.60605311647190963</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" ref="W13:W14" si="11">STDEV(S13:U13)</f>
+        <v>3.0053882991863418E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <f>AX1</f>
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <f>BC5</f>
+        <v>50.138917386421625</v>
+      </c>
+      <c r="F14" s="6">
+        <f>BK5</f>
+        <v>48.457117392556995</v>
+      </c>
+      <c r="G14" s="6">
+        <f>BO5</f>
+        <v>51.87352519574771</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="6"/>
+        <v>50.156519991575443</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="7"/>
+        <v>1.7082719216233559</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="6">
+        <f>BD5</f>
+        <v>20.925842431795139</v>
+      </c>
+      <c r="M14" s="6">
+        <f>BL5</f>
+        <v>-22.981082165199606</v>
+      </c>
+      <c r="N14" s="6">
+        <f>BT5</f>
+        <v>27.802406707353452</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="8"/>
+        <v>8.5823889913163285</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="9"/>
+        <v>27.550160029392412</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="6">
+        <f>BE5</f>
+        <v>0.62559598123553339</v>
+      </c>
+      <c r="T14" s="6">
+        <f>BM5</f>
+        <v>0.61761358427185664</v>
+      </c>
+      <c r="U14" s="6">
+        <f>BU5</f>
+        <v>0.63023217691400812</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="10"/>
+        <v>0.62448058080713276</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" si="11"/>
+        <v>6.382813537453306E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <f>BV1</f>
+        <v>54</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <f>BW5</f>
+        <v>61.683617099519225</v>
+      </c>
+      <c r="F15" s="6">
+        <f>CE5</f>
+        <v>59.937117553843663</v>
+      </c>
+      <c r="G15" s="6">
+        <f>CM5</f>
+        <v>52.081963128317206</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ref="H15:H16" si="12">AVERAGE(E15:G15)</f>
+        <v>57.900899260560031</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" ref="I15:I16" si="13">STDEV(E15:G15)</f>
+        <v>5.11444801020619</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="6">
+        <f>BX5</f>
+        <v>31.533719282896186</v>
+      </c>
+      <c r="M15" s="6">
+        <f>CF5</f>
+        <v>13.509650165742618</v>
+      </c>
+      <c r="N15" s="6">
+        <f>CN5</f>
+        <v>0.496181711671837</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" ref="O15:O16" si="14">AVERAGE(L15:N15)</f>
+        <v>15.179850386770214</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" ref="P15:P16" si="15">STDEV(L15:N15)</f>
+        <v>15.586030963816004</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="6">
+        <f>BY5</f>
+        <v>1.0964750816451867</v>
+      </c>
+      <c r="T15" s="6">
+        <f>CG5</f>
+        <v>1.0699428993881592</v>
+      </c>
+      <c r="U15" s="6">
+        <f>CO5</f>
+        <v>1.1668939559090643</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" ref="V15:V16" si="16">AVERAGE(S15:U15)</f>
+        <v>1.1111039789808035</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" ref="W15:W16" si="17">STDEV(S15:U15)</f>
+        <v>5.0103695652835262E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:217" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <f>BV1</f>
+        <v>54</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <f>CA5</f>
+        <v>56.300818793486812</v>
+      </c>
+      <c r="F16" s="6">
+        <f>CI5</f>
+        <v>56.161059885170516</v>
+      </c>
+      <c r="G16" s="6">
+        <f>CM5</f>
+        <v>52.081963128317206</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="12"/>
+        <v>54.847947268991511</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="13"/>
+        <v>2.396431584243492</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="6">
+        <f>CB5</f>
+        <v>29.880671770490409</v>
+      </c>
+      <c r="M16" s="6">
+        <f>CJ5</f>
+        <v>29.602227004096324</v>
+      </c>
+      <c r="N16" s="6">
+        <f>CR5</f>
+        <v>20.766982071914139</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="14"/>
+        <v>26.749960282166956</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="15"/>
+        <v>5.1832812069434464</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="6">
+        <f>CC5</f>
+        <v>1.0817617887015403</v>
+      </c>
+      <c r="T16" s="6">
+        <f>CK5</f>
+        <v>1.092375483224534</v>
+      </c>
+      <c r="U16" s="6">
+        <f>CS5</f>
+        <v>1.3262315836703766</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="16"/>
+        <v>1.1667896185321505</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="17"/>
+        <v>0.1381827334119983</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <f>CT1</f>
+        <v>122</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <f>CU5</f>
+        <v>55.223475881513039</v>
+      </c>
+      <c r="F17" s="6">
+        <f>DC5</f>
+        <v>55.880390699359147</v>
+      </c>
+      <c r="G17" s="6">
+        <f>DK5</f>
+        <v>54.968225357169842</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17:H18" si="18">AVERAGE(E17:G17)</f>
+        <v>55.357363979347348</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" ref="I17:I18" si="19">STDEV(E17:G17)</f>
+        <v>0.4705910325634125</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="6">
+        <f>CV5</f>
+        <v>23.279204189133583</v>
+      </c>
+      <c r="M17" s="6">
+        <f>DD5</f>
+        <v>17.364962970412297</v>
+      </c>
+      <c r="N17" s="6">
+        <f>DL5</f>
+        <v>18.380166221947825</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" ref="O17:O18" si="20">AVERAGE(L17:N17)</f>
+        <v>19.674777793831236</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" ref="P17:P18" si="21">STDEV(L17:N17)</f>
+        <v>3.1625269389913875</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="6">
+        <f>CW5</f>
+        <v>1.5047833289094252</v>
+      </c>
+      <c r="T17" s="6">
+        <f>DE5</f>
+        <v>1.4894113714579826</v>
+      </c>
+      <c r="U17" s="6">
+        <f>DM5</f>
+        <v>1.4878892034020179</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" ref="V17:V18" si="22">AVERAGE(S17:U17)</f>
+        <v>1.4940279679231419</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" ref="W17:W18" si="23">STDEV(S17:U17)</f>
+        <v>9.3454583277974446E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <f>CT1</f>
+        <v>122</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6">
+        <f>CY5</f>
+        <v>53.296635694614473</v>
+      </c>
+      <c r="F18" s="6">
+        <f>DG5</f>
+        <v>51.626410583268161</v>
+      </c>
+      <c r="G18" s="6">
+        <f>DK5</f>
+        <v>54.968225357169842</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="18"/>
+        <v>53.29709054501749</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="19"/>
+        <v>1.6709074333826976</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="6">
+        <f>CZ5</f>
+        <v>21.761508863573912</v>
+      </c>
+      <c r="M18" s="6">
+        <f>DH5</f>
+        <v>18.038820089376575</v>
+      </c>
+      <c r="N18" s="6">
+        <f>DP5</f>
+        <v>28.198877146651235</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="20"/>
+        <v>22.666402033200573</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="21"/>
+        <v>5.1401180519611573</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="6">
+        <f>DA5</f>
+        <v>1.3964073901831362</v>
+      </c>
+      <c r="T18" s="6">
+        <f>DI5</f>
+        <v>1.3942016320232153</v>
+      </c>
+      <c r="U18" s="6">
+        <f>DQ5</f>
+        <v>1.3469130595062964</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="22"/>
+        <v>1.3791740272375492</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="23"/>
+        <v>2.7960577094951419E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <f>DR1</f>
+        <v>126</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6">
+        <f>DS5</f>
+        <v>59.404809459116919</v>
+      </c>
+      <c r="F19" s="6">
+        <f>EA5</f>
+        <v>60.870227035540736</v>
+      </c>
+      <c r="G19" s="6">
+        <f>EI5</f>
+        <v>60.042286338840185</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" ref="H19:H20" si="24">AVERAGE(E19:G19)</f>
+        <v>60.105774277832609</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" ref="I19:I20" si="25">STDEV(E19:G19)</f>
+        <v>0.7347688120225937</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="6">
+        <f>DT5</f>
+        <v>22.882499603702751</v>
+      </c>
+      <c r="M19" s="6">
+        <f>EB5</f>
+        <v>19.321058940376904</v>
+      </c>
+      <c r="N19" s="6">
+        <f>EJ5</f>
+        <v>26.451754548277734</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" ref="O19:O20" si="26">AVERAGE(L19:N19)</f>
+        <v>22.88510436411913</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" ref="P19:P20" si="27">STDEV(L19:N19)</f>
+        <v>3.5653485175669202</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="6">
+        <f>DU5</f>
+        <v>4.927920469206148</v>
+      </c>
+      <c r="T19" s="6">
+        <f>EC5</f>
+        <v>5.1421052143150554</v>
+      </c>
+      <c r="U19" s="6">
+        <f>EK5</f>
+        <v>4.7028140303482271</v>
+      </c>
+      <c r="V19" s="6">
+        <f t="shared" ref="V19:V20" si="28">AVERAGE(S19:U19)</f>
+        <v>4.9242799046231438</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" ref="W19:W20" si="29">STDEV(S19:U19)</f>
+        <v>0.21966821882240206</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <f>DR1</f>
+        <v>126</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6">
+        <f>DW5</f>
+        <v>54.46064868938862</v>
+      </c>
+      <c r="F20" s="6">
+        <f>EE5</f>
+        <v>53.440749126585004</v>
+      </c>
+      <c r="G20" s="6">
+        <f>EI5</f>
+        <v>60.042286338840185</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="24"/>
+        <v>55.981228051604603</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="25"/>
+        <v>3.5537578123439069</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="6">
+        <f>DX5</f>
+        <v>38.18862244700081</v>
+      </c>
+      <c r="M20" s="6">
+        <f>EF5</f>
+        <v>36.169709301768179</v>
+      </c>
+      <c r="N20" s="6">
+        <f>EN5</f>
+        <v>37.745731100449554</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="26"/>
+        <v>37.36802094973951</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="27"/>
+        <v>1.0611320796490551</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="6">
+        <f>DY5</f>
+        <v>4.7877631177657944</v>
+      </c>
+      <c r="T20" s="6">
+        <f>EG5</f>
+        <v>4.6193870895679101</v>
+      </c>
+      <c r="U20" s="6">
+        <f>EO5</f>
+        <v>4.365716695666249</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="28"/>
+        <v>4.5909556343333175</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" si="29"/>
+        <v>0.21245483363958656</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <f>EP1</f>
+        <v>138</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6">
+        <f>EQ5</f>
+        <v>58.134481602743861</v>
+      </c>
+      <c r="F21" s="6">
+        <f>EY5</f>
+        <v>59.386793241191334</v>
+      </c>
+      <c r="G21" s="6">
+        <f>FG5</f>
+        <v>59.816499926536721</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21:H22" si="30">AVERAGE(E21:G21)</f>
+        <v>59.112591590157308</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21:I22" si="31">STDEV(E21:G21)</f>
+        <v>0.87389148037160558</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="6">
+        <f>ER5</f>
+        <v>16.399209843274061</v>
+      </c>
+      <c r="M21" s="6">
+        <f>EZ5</f>
+        <v>6.4666065836512683</v>
+      </c>
+      <c r="N21" s="6">
+        <f>FH5</f>
+        <v>7.5277645955652206</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" ref="O21:O22" si="32">AVERAGE(L21:N21)</f>
+        <v>10.131193674163516</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" ref="P21:P22" si="33">STDEV(L21:N21)</f>
+        <v>5.4541300042936038</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="6">
+        <f>ES5</f>
+        <v>2.1952338566621696</v>
+      </c>
+      <c r="T21" s="6">
+        <f>FA5</f>
+        <v>2.1271078313717995</v>
+      </c>
+      <c r="U21" s="6">
+        <f>FI5</f>
+        <v>2.1833853494973972</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" ref="V21:V22" si="34">AVERAGE(S21:U21)</f>
+        <v>2.1685756791771222</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" ref="W21:W22" si="35">STDEV(S21:U21)</f>
+        <v>3.6397576591202685E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <f>EP1</f>
+        <v>138</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
+        <f>EU5</f>
+        <v>52.106829707100793</v>
+      </c>
+      <c r="F22" s="6">
+        <f>FC5</f>
+        <v>55.345799629058106</v>
+      </c>
+      <c r="G22" s="6">
+        <f>FG5</f>
+        <v>59.816499926536721</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="30"/>
+        <v>55.75637642089854</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="31"/>
+        <v>3.8711992585777337</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="6">
+        <f>EV5</f>
+        <v>34.475279069760248</v>
+      </c>
+      <c r="M22" s="6">
+        <f>FD5</f>
+        <v>22.903804441650447</v>
+      </c>
+      <c r="N22" s="6">
+        <f>FL5</f>
+        <v>17.624699097488886</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="32"/>
+        <v>25.001260869633196</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="33"/>
+        <v>8.6188748657201604</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="6">
+        <f>EW5</f>
+        <v>2.0715211338611939</v>
+      </c>
+      <c r="T22" s="6">
+        <f>FE5</f>
+        <v>2.1174261302961686</v>
+      </c>
+      <c r="U22" s="6">
+        <f>FM5</f>
+        <v>2.1577840165902473</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="34"/>
+        <v>2.1155770935825369</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" si="35"/>
+        <v>4.3161156573450127E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <f>FN1</f>
+        <v>151</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6">
+        <f>FO5</f>
+        <v>58.66274624515188</v>
+      </c>
+      <c r="F23" s="6">
+        <f>FW5</f>
+        <v>58.518980486568104</v>
+      </c>
+      <c r="G23" s="6">
+        <f>GE5</f>
+        <v>57.215213484850651</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ref="H23:H24" si="36">AVERAGE(E23:G23)</f>
+        <v>58.13231340552354</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" ref="I23:I24" si="37">STDEV(E23:G23)</f>
+        <v>0.79747811675867541</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="6">
+        <f>FP5</f>
+        <v>8.3545525229702875</v>
+      </c>
+      <c r="M23" s="6">
+        <f>FX5</f>
+        <v>2.8698726095610594</v>
+      </c>
+      <c r="N23" s="6">
+        <f>GF5</f>
+        <v>2.4724232215679103</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" ref="O23:O24" si="38">AVERAGE(L23:N23)</f>
+        <v>4.5656161180330859</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" ref="P23:P24" si="39">STDEV(L23:N23)</f>
+        <v>3.2873273056539212</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="6">
+        <f>FQ5</f>
+        <v>2.1054705463652392</v>
+      </c>
+      <c r="T23" s="6">
+        <f>FY5</f>
+        <v>2.1747802620642953</v>
+      </c>
+      <c r="U23" s="6">
+        <f>GG5</f>
+        <v>2.0682625052755985</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" ref="V23:V24" si="40">AVERAGE(S23:U23)</f>
+        <v>2.116171104568378</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" ref="W23:W24" si="41">STDEV(S23:U23)</f>
+        <v>5.4059084224744834E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <f>FN1</f>
+        <v>151</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6">
+        <f>FS5</f>
+        <v>60.352268130608422</v>
+      </c>
+      <c r="F24" s="6">
+        <f>GA5</f>
+        <v>56.755376215015403</v>
+      </c>
+      <c r="G24" s="6">
+        <f>GE5</f>
+        <v>57.215213484850651</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="36"/>
+        <v>58.107619276824828</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="37"/>
+        <v>1.9574725888952815</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="6">
+        <f>FT5</f>
+        <v>23.038562169647957</v>
+      </c>
+      <c r="M24" s="6">
+        <f>GB5</f>
+        <v>26.97718507832305</v>
+      </c>
+      <c r="N24" s="6">
+        <f>GJ5</f>
+        <v>18.469290861655384</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="38"/>
+        <v>22.828346036542129</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="39"/>
+        <v>4.2578408985617813</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="6">
+        <f>FU5</f>
+        <v>2.0838080920714743</v>
+      </c>
+      <c r="T24" s="6">
+        <f>GC5</f>
+        <v>2.081260781769986</v>
+      </c>
+      <c r="U24" s="6">
+        <f>GK5</f>
+        <v>1.9858104463769819</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="40"/>
+        <v>2.0502931067394807</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="41"/>
+        <v>5.5858144553968585E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <f>GL1</f>
+        <v>175</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <f>GM5</f>
+        <v>62.072599792333335</v>
+      </c>
+      <c r="F25" s="6">
+        <f>GU5</f>
+        <v>66.013478293063727</v>
+      </c>
+      <c r="G25" s="6">
+        <f>HC5</f>
+        <v>63.556777054020884</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" ref="H25:H26" si="42">AVERAGE(E25:G25)</f>
+        <v>63.880951713139304</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" ref="I25:I26" si="43">STDEV(E25:G25)</f>
+        <v>1.9903386009899595</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="6">
+        <f>GN5</f>
+        <v>35.122947871512665</v>
+      </c>
+      <c r="M25" s="6">
+        <f>GV5</f>
+        <v>21.438275925244312</v>
+      </c>
+      <c r="N25" s="6">
+        <f>HD5</f>
+        <v>16.115071451056959</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25:O26" si="44">AVERAGE(L25:N25)</f>
+        <v>24.225431749271312</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" ref="P25:P26" si="45">STDEV(L25:N25)</f>
+        <v>9.8056626341305684</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="6">
+        <f>GO5</f>
+        <v>3.4447036939423112</v>
+      </c>
+      <c r="T25" s="6">
+        <f>GW5</f>
+        <v>3.5077001422272334</v>
+      </c>
+      <c r="U25" s="6">
+        <f>HE5</f>
+        <v>3.514043069340429</v>
+      </c>
+      <c r="V25" s="6">
+        <f t="shared" ref="V25:V26" si="46">AVERAGE(S25:U25)</f>
+        <v>3.4888156351699915</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" ref="W25:W26" si="47">STDEV(S25:U25)</f>
+        <v>3.8333480147862205E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <f>GL1</f>
+        <v>175</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6">
+        <f>GQ5</f>
+        <v>60.904197074335528</v>
+      </c>
+      <c r="F26" s="6">
+        <f>GY5</f>
+        <v>63.844698281870976</v>
+      </c>
+      <c r="G26" s="6">
+        <f>HC5</f>
+        <v>63.556777054020884</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="42"/>
+        <v>62.768557470075791</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="43"/>
+        <v>1.6209887175009217</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="6">
+        <f>GR5</f>
+        <v>17.019879825077034</v>
+      </c>
+      <c r="M26" s="6">
+        <f>GZ5</f>
+        <v>13.017699505751086</v>
+      </c>
+      <c r="N26" s="6">
+        <f>HH5</f>
+        <v>16.743224612242482</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="44"/>
+        <v>15.593601314356867</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="45"/>
+        <v>2.2350810102501963</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="6">
+        <f>GS5</f>
+        <v>3.3265759965659996</v>
+      </c>
+      <c r="T26" s="6">
+        <f>HA5</f>
+        <v>3.2864104854362521</v>
+      </c>
+      <c r="U26" s="6">
+        <f>HI5</f>
+        <v>3.3958838998289496</v>
+      </c>
+      <c r="V26" s="6">
+        <f t="shared" si="46"/>
+        <v>3.3362901272770671</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" si="47"/>
+        <v>5.537942186681432E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="GT3:GW3"/>
+    <mergeCell ref="GX3:HA3"/>
+    <mergeCell ref="HB3:HE3"/>
+    <mergeCell ref="HF3:HI3"/>
+    <mergeCell ref="FV3:FY3"/>
+    <mergeCell ref="FZ3:GC3"/>
+    <mergeCell ref="GD3:GG3"/>
+    <mergeCell ref="GH3:GK3"/>
+    <mergeCell ref="GL3:GO3"/>
+    <mergeCell ref="GP3:GS3"/>
+    <mergeCell ref="EX3:FA3"/>
+    <mergeCell ref="FB3:FE3"/>
+    <mergeCell ref="FF3:FI3"/>
+    <mergeCell ref="FJ3:FM3"/>
+    <mergeCell ref="FN3:FQ3"/>
+    <mergeCell ref="FR3:FU3"/>
+    <mergeCell ref="DZ3:EC3"/>
+    <mergeCell ref="ED3:EG3"/>
+    <mergeCell ref="EH3:EK3"/>
+    <mergeCell ref="EL3:EO3"/>
+    <mergeCell ref="EP3:ES3"/>
+    <mergeCell ref="ET3:EW3"/>
+    <mergeCell ref="DB3:DE3"/>
+    <mergeCell ref="DF3:DI3"/>
+    <mergeCell ref="DJ3:DM3"/>
+    <mergeCell ref="DN3:DQ3"/>
+    <mergeCell ref="DR3:DU3"/>
+    <mergeCell ref="DV3:DY3"/>
+    <mergeCell ref="CD3:CG3"/>
+    <mergeCell ref="CH3:CK3"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="CP3:CS3"/>
+    <mergeCell ref="CT3:CW3"/>
+    <mergeCell ref="CX3:DA3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="BZ3:CC3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="DZ2:EG2"/>
+    <mergeCell ref="EH2:EO2"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="EP1:FM1"/>
+    <mergeCell ref="FN1:GK1"/>
+    <mergeCell ref="GL1:HI1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="Z1:AW1"/>
+    <mergeCell ref="AX1:BU1"/>
+    <mergeCell ref="BV1:CS1"/>
+    <mergeCell ref="CT1:DQ1"/>
+    <mergeCell ref="DR1:EO1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/bax_insertion/data/KD2_dataset.xlsx
+++ b/bax_insertion/data/KD2_dataset.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Endpoints" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="F0" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="13">
   <si>
     <t>cBid</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>RLS</t>
+  </si>
+  <si>
+    <t>F0</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -196,6 +199,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -206,7 +218,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
@@ -217,6 +229,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,6 +273,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -576,844 +603,844 @@
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="24">
         <v>3</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="19">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="24">
         <v>36</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="19">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="24">
         <v>47</v>
       </c>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20"/>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="19">
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="24">
         <v>54</v>
       </c>
-      <c r="BW1" s="20"/>
-      <c r="BX1" s="20"/>
-      <c r="BY1" s="20"/>
-      <c r="BZ1" s="20"/>
-      <c r="CA1" s="20"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="20"/>
-      <c r="CD1" s="20"/>
-      <c r="CE1" s="20"/>
-      <c r="CF1" s="20"/>
-      <c r="CG1" s="20"/>
-      <c r="CH1" s="20"/>
-      <c r="CI1" s="20"/>
-      <c r="CJ1" s="20"/>
-      <c r="CK1" s="20"/>
-      <c r="CL1" s="20"/>
-      <c r="CM1" s="20"/>
-      <c r="CN1" s="20"/>
-      <c r="CO1" s="20"/>
-      <c r="CP1" s="20"/>
-      <c r="CQ1" s="20"/>
-      <c r="CR1" s="20"/>
-      <c r="CS1" s="21"/>
-      <c r="CT1" s="19">
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25"/>
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="25"/>
+      <c r="CR1" s="25"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="24">
         <v>122</v>
       </c>
-      <c r="CU1" s="20"/>
-      <c r="CV1" s="20"/>
-      <c r="CW1" s="20"/>
-      <c r="CX1" s="20"/>
-      <c r="CY1" s="20"/>
-      <c r="CZ1" s="20"/>
-      <c r="DA1" s="20"/>
-      <c r="DB1" s="20"/>
-      <c r="DC1" s="20"/>
-      <c r="DD1" s="20"/>
-      <c r="DE1" s="20"/>
-      <c r="DF1" s="20"/>
-      <c r="DG1" s="20"/>
-      <c r="DH1" s="20"/>
-      <c r="DI1" s="20"/>
-      <c r="DJ1" s="20"/>
-      <c r="DK1" s="20"/>
-      <c r="DL1" s="20"/>
-      <c r="DM1" s="20"/>
-      <c r="DN1" s="20"/>
-      <c r="DO1" s="20"/>
-      <c r="DP1" s="20"/>
-      <c r="DQ1" s="21"/>
-      <c r="DR1" s="19">
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="25"/>
+      <c r="CZ1" s="25"/>
+      <c r="DA1" s="25"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25"/>
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25"/>
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25"/>
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="25"/>
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="24">
         <v>126</v>
       </c>
-      <c r="DS1" s="20"/>
-      <c r="DT1" s="20"/>
-      <c r="DU1" s="20"/>
-      <c r="DV1" s="20"/>
-      <c r="DW1" s="20"/>
-      <c r="DX1" s="20"/>
-      <c r="DY1" s="20"/>
-      <c r="DZ1" s="20"/>
-      <c r="EA1" s="20"/>
-      <c r="EB1" s="20"/>
-      <c r="EC1" s="20"/>
-      <c r="ED1" s="20"/>
-      <c r="EE1" s="20"/>
-      <c r="EF1" s="20"/>
-      <c r="EG1" s="20"/>
-      <c r="EH1" s="20"/>
-      <c r="EI1" s="20"/>
-      <c r="EJ1" s="20"/>
-      <c r="EK1" s="20"/>
-      <c r="EL1" s="20"/>
-      <c r="EM1" s="20"/>
-      <c r="EN1" s="20"/>
-      <c r="EO1" s="21"/>
-      <c r="EP1" s="19">
+      <c r="DS1" s="25"/>
+      <c r="DT1" s="25"/>
+      <c r="DU1" s="25"/>
+      <c r="DV1" s="25"/>
+      <c r="DW1" s="25"/>
+      <c r="DX1" s="25"/>
+      <c r="DY1" s="25"/>
+      <c r="DZ1" s="25"/>
+      <c r="EA1" s="25"/>
+      <c r="EB1" s="25"/>
+      <c r="EC1" s="25"/>
+      <c r="ED1" s="25"/>
+      <c r="EE1" s="25"/>
+      <c r="EF1" s="25"/>
+      <c r="EG1" s="25"/>
+      <c r="EH1" s="25"/>
+      <c r="EI1" s="25"/>
+      <c r="EJ1" s="25"/>
+      <c r="EK1" s="25"/>
+      <c r="EL1" s="25"/>
+      <c r="EM1" s="25"/>
+      <c r="EN1" s="25"/>
+      <c r="EO1" s="26"/>
+      <c r="EP1" s="24">
         <v>138</v>
       </c>
-      <c r="EQ1" s="20"/>
-      <c r="ER1" s="20"/>
-      <c r="ES1" s="20"/>
-      <c r="ET1" s="20"/>
-      <c r="EU1" s="20"/>
-      <c r="EV1" s="20"/>
-      <c r="EW1" s="20"/>
-      <c r="EX1" s="20"/>
-      <c r="EY1" s="20"/>
-      <c r="EZ1" s="20"/>
-      <c r="FA1" s="20"/>
-      <c r="FB1" s="20"/>
-      <c r="FC1" s="20"/>
-      <c r="FD1" s="20"/>
-      <c r="FE1" s="20"/>
-      <c r="FF1" s="20"/>
-      <c r="FG1" s="20"/>
-      <c r="FH1" s="20"/>
-      <c r="FI1" s="20"/>
-      <c r="FJ1" s="20"/>
-      <c r="FK1" s="20"/>
-      <c r="FL1" s="20"/>
-      <c r="FM1" s="21"/>
-      <c r="FN1" s="19">
+      <c r="EQ1" s="25"/>
+      <c r="ER1" s="25"/>
+      <c r="ES1" s="25"/>
+      <c r="ET1" s="25"/>
+      <c r="EU1" s="25"/>
+      <c r="EV1" s="25"/>
+      <c r="EW1" s="25"/>
+      <c r="EX1" s="25"/>
+      <c r="EY1" s="25"/>
+      <c r="EZ1" s="25"/>
+      <c r="FA1" s="25"/>
+      <c r="FB1" s="25"/>
+      <c r="FC1" s="25"/>
+      <c r="FD1" s="25"/>
+      <c r="FE1" s="25"/>
+      <c r="FF1" s="25"/>
+      <c r="FG1" s="25"/>
+      <c r="FH1" s="25"/>
+      <c r="FI1" s="25"/>
+      <c r="FJ1" s="25"/>
+      <c r="FK1" s="25"/>
+      <c r="FL1" s="25"/>
+      <c r="FM1" s="26"/>
+      <c r="FN1" s="24">
         <v>151</v>
       </c>
-      <c r="FO1" s="20"/>
-      <c r="FP1" s="20"/>
-      <c r="FQ1" s="20"/>
-      <c r="FR1" s="20"/>
-      <c r="FS1" s="20"/>
-      <c r="FT1" s="20"/>
-      <c r="FU1" s="20"/>
-      <c r="FV1" s="20"/>
-      <c r="FW1" s="20"/>
-      <c r="FX1" s="20"/>
-      <c r="FY1" s="20"/>
-      <c r="FZ1" s="20"/>
-      <c r="GA1" s="20"/>
-      <c r="GB1" s="20"/>
-      <c r="GC1" s="20"/>
-      <c r="GD1" s="20"/>
-      <c r="GE1" s="20"/>
-      <c r="GF1" s="20"/>
-      <c r="GG1" s="20"/>
-      <c r="GH1" s="20"/>
-      <c r="GI1" s="20"/>
-      <c r="GJ1" s="20"/>
-      <c r="GK1" s="21"/>
-      <c r="GL1" s="19">
+      <c r="FO1" s="25"/>
+      <c r="FP1" s="25"/>
+      <c r="FQ1" s="25"/>
+      <c r="FR1" s="25"/>
+      <c r="FS1" s="25"/>
+      <c r="FT1" s="25"/>
+      <c r="FU1" s="25"/>
+      <c r="FV1" s="25"/>
+      <c r="FW1" s="25"/>
+      <c r="FX1" s="25"/>
+      <c r="FY1" s="25"/>
+      <c r="FZ1" s="25"/>
+      <c r="GA1" s="25"/>
+      <c r="GB1" s="25"/>
+      <c r="GC1" s="25"/>
+      <c r="GD1" s="25"/>
+      <c r="GE1" s="25"/>
+      <c r="GF1" s="25"/>
+      <c r="GG1" s="25"/>
+      <c r="GH1" s="25"/>
+      <c r="GI1" s="25"/>
+      <c r="GJ1" s="25"/>
+      <c r="GK1" s="26"/>
+      <c r="GL1" s="24">
         <v>175</v>
       </c>
-      <c r="GM1" s="20"/>
-      <c r="GN1" s="20"/>
-      <c r="GO1" s="20"/>
-      <c r="GP1" s="20"/>
-      <c r="GQ1" s="20"/>
-      <c r="GR1" s="20"/>
-      <c r="GS1" s="20"/>
-      <c r="GT1" s="20"/>
-      <c r="GU1" s="20"/>
-      <c r="GV1" s="20"/>
-      <c r="GW1" s="20"/>
-      <c r="GX1" s="20"/>
-      <c r="GY1" s="20"/>
-      <c r="GZ1" s="20"/>
-      <c r="HA1" s="20"/>
-      <c r="HB1" s="20"/>
-      <c r="HC1" s="20"/>
-      <c r="HD1" s="20"/>
-      <c r="HE1" s="20"/>
-      <c r="HF1" s="20"/>
-      <c r="HG1" s="20"/>
-      <c r="HH1" s="20"/>
-      <c r="HI1" s="21"/>
+      <c r="GM1" s="25"/>
+      <c r="GN1" s="25"/>
+      <c r="GO1" s="25"/>
+      <c r="GP1" s="25"/>
+      <c r="GQ1" s="25"/>
+      <c r="GR1" s="25"/>
+      <c r="GS1" s="25"/>
+      <c r="GT1" s="25"/>
+      <c r="GU1" s="25"/>
+      <c r="GV1" s="25"/>
+      <c r="GW1" s="25"/>
+      <c r="GX1" s="25"/>
+      <c r="GY1" s="25"/>
+      <c r="GZ1" s="25"/>
+      <c r="HA1" s="25"/>
+      <c r="HB1" s="25"/>
+      <c r="HC1" s="25"/>
+      <c r="HD1" s="25"/>
+      <c r="HE1" s="25"/>
+      <c r="HF1" s="25"/>
+      <c r="HG1" s="25"/>
+      <c r="HH1" s="25"/>
+      <c r="HI1" s="26"/>
     </row>
     <row r="2" spans="1:217" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="16">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21">
         <v>2</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="16">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="21">
         <v>3</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="16">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="21">
         <v>1</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="16">
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="21">
         <v>2</v>
       </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="16">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="21">
         <v>3</v>
       </c>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="16">
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="21">
         <v>1</v>
       </c>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="16">
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="21">
         <v>2</v>
       </c>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="17"/>
-      <c r="BL2" s="17"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="16">
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="21">
         <v>3</v>
       </c>
-      <c r="BO2" s="17"/>
-      <c r="BP2" s="17"/>
-      <c r="BQ2" s="17"/>
-      <c r="BR2" s="17"/>
-      <c r="BS2" s="17"/>
-      <c r="BT2" s="17"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="16">
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="21">
         <v>1</v>
       </c>
-      <c r="BW2" s="17"/>
-      <c r="BX2" s="17"/>
-      <c r="BY2" s="17"/>
-      <c r="BZ2" s="17"/>
-      <c r="CA2" s="17"/>
-      <c r="CB2" s="17"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="16">
+      <c r="BW2" s="22"/>
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="23"/>
+      <c r="CD2" s="21">
         <v>2</v>
       </c>
-      <c r="CE2" s="17"/>
-      <c r="CF2" s="17"/>
-      <c r="CG2" s="17"/>
-      <c r="CH2" s="17"/>
-      <c r="CI2" s="17"/>
-      <c r="CJ2" s="17"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="16">
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="21">
         <v>3</v>
       </c>
-      <c r="CM2" s="17"/>
-      <c r="CN2" s="17"/>
-      <c r="CO2" s="17"/>
-      <c r="CP2" s="17"/>
-      <c r="CQ2" s="17"/>
-      <c r="CR2" s="17"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="16">
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="21">
         <v>1</v>
       </c>
-      <c r="CU2" s="17"/>
-      <c r="CV2" s="17"/>
-      <c r="CW2" s="17"/>
-      <c r="CX2" s="17"/>
-      <c r="CY2" s="17"/>
-      <c r="CZ2" s="17"/>
-      <c r="DA2" s="18"/>
-      <c r="DB2" s="16">
+      <c r="CU2" s="22"/>
+      <c r="CV2" s="22"/>
+      <c r="CW2" s="22"/>
+      <c r="CX2" s="22"/>
+      <c r="CY2" s="22"/>
+      <c r="CZ2" s="22"/>
+      <c r="DA2" s="23"/>
+      <c r="DB2" s="21">
         <v>2</v>
       </c>
-      <c r="DC2" s="17"/>
-      <c r="DD2" s="17"/>
-      <c r="DE2" s="17"/>
-      <c r="DF2" s="17"/>
-      <c r="DG2" s="17"/>
-      <c r="DH2" s="17"/>
-      <c r="DI2" s="18"/>
-      <c r="DJ2" s="16">
+      <c r="DC2" s="22"/>
+      <c r="DD2" s="22"/>
+      <c r="DE2" s="22"/>
+      <c r="DF2" s="22"/>
+      <c r="DG2" s="22"/>
+      <c r="DH2" s="22"/>
+      <c r="DI2" s="23"/>
+      <c r="DJ2" s="21">
         <v>3</v>
       </c>
-      <c r="DK2" s="17"/>
-      <c r="DL2" s="17"/>
-      <c r="DM2" s="17"/>
-      <c r="DN2" s="17"/>
-      <c r="DO2" s="17"/>
-      <c r="DP2" s="17"/>
-      <c r="DQ2" s="18"/>
-      <c r="DR2" s="16">
+      <c r="DK2" s="22"/>
+      <c r="DL2" s="22"/>
+      <c r="DM2" s="22"/>
+      <c r="DN2" s="22"/>
+      <c r="DO2" s="22"/>
+      <c r="DP2" s="22"/>
+      <c r="DQ2" s="23"/>
+      <c r="DR2" s="21">
         <v>1</v>
       </c>
-      <c r="DS2" s="17"/>
-      <c r="DT2" s="17"/>
-      <c r="DU2" s="17"/>
-      <c r="DV2" s="17"/>
-      <c r="DW2" s="17"/>
-      <c r="DX2" s="17"/>
-      <c r="DY2" s="18"/>
-      <c r="DZ2" s="16">
+      <c r="DS2" s="22"/>
+      <c r="DT2" s="22"/>
+      <c r="DU2" s="22"/>
+      <c r="DV2" s="22"/>
+      <c r="DW2" s="22"/>
+      <c r="DX2" s="22"/>
+      <c r="DY2" s="23"/>
+      <c r="DZ2" s="21">
         <v>2</v>
       </c>
-      <c r="EA2" s="17"/>
-      <c r="EB2" s="17"/>
-      <c r="EC2" s="17"/>
-      <c r="ED2" s="17"/>
-      <c r="EE2" s="17"/>
-      <c r="EF2" s="17"/>
-      <c r="EG2" s="18"/>
-      <c r="EH2" s="16">
+      <c r="EA2" s="22"/>
+      <c r="EB2" s="22"/>
+      <c r="EC2" s="22"/>
+      <c r="ED2" s="22"/>
+      <c r="EE2" s="22"/>
+      <c r="EF2" s="22"/>
+      <c r="EG2" s="23"/>
+      <c r="EH2" s="21">
         <v>3</v>
       </c>
-      <c r="EI2" s="17"/>
-      <c r="EJ2" s="17"/>
-      <c r="EK2" s="17"/>
-      <c r="EL2" s="17"/>
-      <c r="EM2" s="17"/>
-      <c r="EN2" s="17"/>
-      <c r="EO2" s="18"/>
-      <c r="EP2" s="16">
+      <c r="EI2" s="22"/>
+      <c r="EJ2" s="22"/>
+      <c r="EK2" s="22"/>
+      <c r="EL2" s="22"/>
+      <c r="EM2" s="22"/>
+      <c r="EN2" s="22"/>
+      <c r="EO2" s="23"/>
+      <c r="EP2" s="21">
         <v>1</v>
       </c>
-      <c r="EQ2" s="17"/>
-      <c r="ER2" s="17"/>
-      <c r="ES2" s="17"/>
-      <c r="ET2" s="17"/>
-      <c r="EU2" s="17"/>
-      <c r="EV2" s="17"/>
-      <c r="EW2" s="18"/>
-      <c r="EX2" s="16">
+      <c r="EQ2" s="22"/>
+      <c r="ER2" s="22"/>
+      <c r="ES2" s="22"/>
+      <c r="ET2" s="22"/>
+      <c r="EU2" s="22"/>
+      <c r="EV2" s="22"/>
+      <c r="EW2" s="23"/>
+      <c r="EX2" s="21">
         <v>2</v>
       </c>
-      <c r="EY2" s="17"/>
-      <c r="EZ2" s="17"/>
-      <c r="FA2" s="17"/>
-      <c r="FB2" s="17"/>
-      <c r="FC2" s="17"/>
-      <c r="FD2" s="17"/>
-      <c r="FE2" s="18"/>
-      <c r="FF2" s="16">
+      <c r="EY2" s="22"/>
+      <c r="EZ2" s="22"/>
+      <c r="FA2" s="22"/>
+      <c r="FB2" s="22"/>
+      <c r="FC2" s="22"/>
+      <c r="FD2" s="22"/>
+      <c r="FE2" s="23"/>
+      <c r="FF2" s="21">
         <v>3</v>
       </c>
-      <c r="FG2" s="17"/>
-      <c r="FH2" s="17"/>
-      <c r="FI2" s="17"/>
-      <c r="FJ2" s="17"/>
-      <c r="FK2" s="17"/>
-      <c r="FL2" s="17"/>
-      <c r="FM2" s="18"/>
-      <c r="FN2" s="16">
+      <c r="FG2" s="22"/>
+      <c r="FH2" s="22"/>
+      <c r="FI2" s="22"/>
+      <c r="FJ2" s="22"/>
+      <c r="FK2" s="22"/>
+      <c r="FL2" s="22"/>
+      <c r="FM2" s="23"/>
+      <c r="FN2" s="21">
         <v>1</v>
       </c>
-      <c r="FO2" s="17"/>
-      <c r="FP2" s="17"/>
-      <c r="FQ2" s="17"/>
-      <c r="FR2" s="17"/>
-      <c r="FS2" s="17"/>
-      <c r="FT2" s="17"/>
-      <c r="FU2" s="18"/>
-      <c r="FV2" s="16">
+      <c r="FO2" s="22"/>
+      <c r="FP2" s="22"/>
+      <c r="FQ2" s="22"/>
+      <c r="FR2" s="22"/>
+      <c r="FS2" s="22"/>
+      <c r="FT2" s="22"/>
+      <c r="FU2" s="23"/>
+      <c r="FV2" s="21">
         <v>2</v>
       </c>
-      <c r="FW2" s="17"/>
-      <c r="FX2" s="17"/>
-      <c r="FY2" s="17"/>
-      <c r="FZ2" s="17"/>
-      <c r="GA2" s="17"/>
-      <c r="GB2" s="17"/>
-      <c r="GC2" s="18"/>
-      <c r="GD2" s="16">
+      <c r="FW2" s="22"/>
+      <c r="FX2" s="22"/>
+      <c r="FY2" s="22"/>
+      <c r="FZ2" s="22"/>
+      <c r="GA2" s="22"/>
+      <c r="GB2" s="22"/>
+      <c r="GC2" s="23"/>
+      <c r="GD2" s="21">
         <v>3</v>
       </c>
-      <c r="GE2" s="17"/>
-      <c r="GF2" s="17"/>
-      <c r="GG2" s="17"/>
-      <c r="GH2" s="17"/>
-      <c r="GI2" s="17"/>
-      <c r="GJ2" s="17"/>
-      <c r="GK2" s="18"/>
-      <c r="GL2" s="16">
+      <c r="GE2" s="22"/>
+      <c r="GF2" s="22"/>
+      <c r="GG2" s="22"/>
+      <c r="GH2" s="22"/>
+      <c r="GI2" s="22"/>
+      <c r="GJ2" s="22"/>
+      <c r="GK2" s="23"/>
+      <c r="GL2" s="21">
         <v>1</v>
       </c>
-      <c r="GM2" s="17"/>
-      <c r="GN2" s="17"/>
-      <c r="GO2" s="17"/>
-      <c r="GP2" s="17"/>
-      <c r="GQ2" s="17"/>
-      <c r="GR2" s="17"/>
-      <c r="GS2" s="18"/>
-      <c r="GT2" s="16">
+      <c r="GM2" s="22"/>
+      <c r="GN2" s="22"/>
+      <c r="GO2" s="22"/>
+      <c r="GP2" s="22"/>
+      <c r="GQ2" s="22"/>
+      <c r="GR2" s="22"/>
+      <c r="GS2" s="23"/>
+      <c r="GT2" s="21">
         <v>2</v>
       </c>
-      <c r="GU2" s="17"/>
-      <c r="GV2" s="17"/>
-      <c r="GW2" s="17"/>
-      <c r="GX2" s="17"/>
-      <c r="GY2" s="17"/>
-      <c r="GZ2" s="17"/>
-      <c r="HA2" s="18"/>
-      <c r="HB2" s="16">
+      <c r="GU2" s="22"/>
+      <c r="GV2" s="22"/>
+      <c r="GW2" s="22"/>
+      <c r="GX2" s="22"/>
+      <c r="GY2" s="22"/>
+      <c r="GZ2" s="22"/>
+      <c r="HA2" s="23"/>
+      <c r="HB2" s="21">
         <v>3</v>
       </c>
-      <c r="HC2" s="17"/>
-      <c r="HD2" s="17"/>
-      <c r="HE2" s="17"/>
-      <c r="HF2" s="17"/>
-      <c r="HG2" s="17"/>
-      <c r="HH2" s="17"/>
-      <c r="HI2" s="18"/>
+      <c r="HC2" s="22"/>
+      <c r="HD2" s="22"/>
+      <c r="HE2" s="22"/>
+      <c r="HF2" s="22"/>
+      <c r="HG2" s="22"/>
+      <c r="HH2" s="22"/>
+      <c r="HI2" s="23"/>
     </row>
     <row r="3" spans="1:217" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="10" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="10" t="s">
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="13" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="10" t="s">
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="13" t="s">
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="10" t="s">
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="13" t="s">
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="10" t="s">
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="13" t="s">
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="10" t="s">
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="13" t="s">
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="10" t="s">
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="13" t="s">
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="17"/>
+      <c r="BN3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="15"/>
-      <c r="BR3" s="10" t="s">
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="12"/>
-      <c r="BV3" s="13" t="s">
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="17"/>
+      <c r="BV3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="15"/>
-      <c r="BZ3" s="10" t="s">
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="CA3" s="11"/>
-      <c r="CB3" s="11"/>
-      <c r="CC3" s="12"/>
-      <c r="CD3" s="13" t="s">
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="17"/>
+      <c r="CD3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="15"/>
-      <c r="CH3" s="10" t="s">
+      <c r="CE3" s="19"/>
+      <c r="CF3" s="19"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="12"/>
-      <c r="CL3" s="13" t="s">
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="17"/>
+      <c r="CL3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="15"/>
-      <c r="CP3" s="10" t="s">
+      <c r="CM3" s="19"/>
+      <c r="CN3" s="19"/>
+      <c r="CO3" s="20"/>
+      <c r="CP3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="CQ3" s="11"/>
-      <c r="CR3" s="11"/>
-      <c r="CS3" s="12"/>
-      <c r="CT3" s="13" t="s">
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="17"/>
+      <c r="CT3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="15"/>
-      <c r="CX3" s="10" t="s">
+      <c r="CU3" s="19"/>
+      <c r="CV3" s="19"/>
+      <c r="CW3" s="20"/>
+      <c r="CX3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="CY3" s="11"/>
-      <c r="CZ3" s="11"/>
-      <c r="DA3" s="12"/>
-      <c r="DB3" s="13" t="s">
+      <c r="CY3" s="16"/>
+      <c r="CZ3" s="16"/>
+      <c r="DA3" s="17"/>
+      <c r="DB3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="15"/>
-      <c r="DF3" s="10" t="s">
+      <c r="DC3" s="19"/>
+      <c r="DD3" s="19"/>
+      <c r="DE3" s="20"/>
+      <c r="DF3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="DG3" s="11"/>
-      <c r="DH3" s="11"/>
-      <c r="DI3" s="12"/>
-      <c r="DJ3" s="13" t="s">
+      <c r="DG3" s="16"/>
+      <c r="DH3" s="16"/>
+      <c r="DI3" s="17"/>
+      <c r="DJ3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="15"/>
-      <c r="DN3" s="10" t="s">
+      <c r="DK3" s="19"/>
+      <c r="DL3" s="19"/>
+      <c r="DM3" s="20"/>
+      <c r="DN3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="DO3" s="11"/>
-      <c r="DP3" s="11"/>
-      <c r="DQ3" s="12"/>
-      <c r="DR3" s="13" t="s">
+      <c r="DO3" s="16"/>
+      <c r="DP3" s="16"/>
+      <c r="DQ3" s="17"/>
+      <c r="DR3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="15"/>
-      <c r="DV3" s="10" t="s">
+      <c r="DS3" s="19"/>
+      <c r="DT3" s="19"/>
+      <c r="DU3" s="20"/>
+      <c r="DV3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="DW3" s="11"/>
-      <c r="DX3" s="11"/>
-      <c r="DY3" s="12"/>
-      <c r="DZ3" s="13" t="s">
+      <c r="DW3" s="16"/>
+      <c r="DX3" s="16"/>
+      <c r="DY3" s="17"/>
+      <c r="DZ3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="15"/>
-      <c r="ED3" s="10" t="s">
+      <c r="EA3" s="19"/>
+      <c r="EB3" s="19"/>
+      <c r="EC3" s="20"/>
+      <c r="ED3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="EE3" s="11"/>
-      <c r="EF3" s="11"/>
-      <c r="EG3" s="12"/>
-      <c r="EH3" s="13" t="s">
+      <c r="EE3" s="16"/>
+      <c r="EF3" s="16"/>
+      <c r="EG3" s="17"/>
+      <c r="EH3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="15"/>
-      <c r="EL3" s="10" t="s">
+      <c r="EI3" s="19"/>
+      <c r="EJ3" s="19"/>
+      <c r="EK3" s="20"/>
+      <c r="EL3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="EM3" s="11"/>
-      <c r="EN3" s="11"/>
-      <c r="EO3" s="12"/>
-      <c r="EP3" s="13" t="s">
+      <c r="EM3" s="16"/>
+      <c r="EN3" s="16"/>
+      <c r="EO3" s="17"/>
+      <c r="EP3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="15"/>
-      <c r="ET3" s="10" t="s">
+      <c r="EQ3" s="19"/>
+      <c r="ER3" s="19"/>
+      <c r="ES3" s="20"/>
+      <c r="ET3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="EU3" s="11"/>
-      <c r="EV3" s="11"/>
-      <c r="EW3" s="12"/>
-      <c r="EX3" s="13" t="s">
+      <c r="EU3" s="16"/>
+      <c r="EV3" s="16"/>
+      <c r="EW3" s="17"/>
+      <c r="EX3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="15"/>
-      <c r="FB3" s="10" t="s">
+      <c r="EY3" s="19"/>
+      <c r="EZ3" s="19"/>
+      <c r="FA3" s="20"/>
+      <c r="FB3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="FC3" s="11"/>
-      <c r="FD3" s="11"/>
-      <c r="FE3" s="12"/>
-      <c r="FF3" s="13" t="s">
+      <c r="FC3" s="16"/>
+      <c r="FD3" s="16"/>
+      <c r="FE3" s="17"/>
+      <c r="FF3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14"/>
-      <c r="FI3" s="15"/>
-      <c r="FJ3" s="10" t="s">
+      <c r="FG3" s="19"/>
+      <c r="FH3" s="19"/>
+      <c r="FI3" s="20"/>
+      <c r="FJ3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="FK3" s="11"/>
-      <c r="FL3" s="11"/>
-      <c r="FM3" s="12"/>
-      <c r="FN3" s="13" t="s">
+      <c r="FK3" s="16"/>
+      <c r="FL3" s="16"/>
+      <c r="FM3" s="17"/>
+      <c r="FN3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="15"/>
-      <c r="FR3" s="10" t="s">
+      <c r="FO3" s="19"/>
+      <c r="FP3" s="19"/>
+      <c r="FQ3" s="20"/>
+      <c r="FR3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="FS3" s="11"/>
-      <c r="FT3" s="11"/>
-      <c r="FU3" s="12"/>
-      <c r="FV3" s="13" t="s">
+      <c r="FS3" s="16"/>
+      <c r="FT3" s="16"/>
+      <c r="FU3" s="17"/>
+      <c r="FV3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="FW3" s="14"/>
-      <c r="FX3" s="14"/>
-      <c r="FY3" s="15"/>
-      <c r="FZ3" s="10" t="s">
+      <c r="FW3" s="19"/>
+      <c r="FX3" s="19"/>
+      <c r="FY3" s="20"/>
+      <c r="FZ3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="GA3" s="11"/>
-      <c r="GB3" s="11"/>
-      <c r="GC3" s="12"/>
-      <c r="GD3" s="13" t="s">
+      <c r="GA3" s="16"/>
+      <c r="GB3" s="16"/>
+      <c r="GC3" s="17"/>
+      <c r="GD3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="GE3" s="14"/>
-      <c r="GF3" s="14"/>
-      <c r="GG3" s="15"/>
-      <c r="GH3" s="10" t="s">
+      <c r="GE3" s="19"/>
+      <c r="GF3" s="19"/>
+      <c r="GG3" s="20"/>
+      <c r="GH3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="GI3" s="11"/>
-      <c r="GJ3" s="11"/>
-      <c r="GK3" s="12"/>
-      <c r="GL3" s="13" t="s">
+      <c r="GI3" s="16"/>
+      <c r="GJ3" s="16"/>
+      <c r="GK3" s="17"/>
+      <c r="GL3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="GM3" s="14"/>
-      <c r="GN3" s="14"/>
-      <c r="GO3" s="15"/>
-      <c r="GP3" s="10" t="s">
+      <c r="GM3" s="19"/>
+      <c r="GN3" s="19"/>
+      <c r="GO3" s="20"/>
+      <c r="GP3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="GQ3" s="11"/>
-      <c r="GR3" s="11"/>
-      <c r="GS3" s="12"/>
-      <c r="GT3" s="13" t="s">
+      <c r="GQ3" s="16"/>
+      <c r="GR3" s="16"/>
+      <c r="GS3" s="17"/>
+      <c r="GT3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="GU3" s="14"/>
-      <c r="GV3" s="14"/>
-      <c r="GW3" s="15"/>
-      <c r="GX3" s="10" t="s">
+      <c r="GU3" s="19"/>
+      <c r="GV3" s="19"/>
+      <c r="GW3" s="20"/>
+      <c r="GX3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="GY3" s="11"/>
-      <c r="GZ3" s="11"/>
-      <c r="HA3" s="12"/>
-      <c r="HB3" s="13" t="s">
+      <c r="GY3" s="16"/>
+      <c r="GZ3" s="16"/>
+      <c r="HA3" s="17"/>
+      <c r="HB3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="HC3" s="14"/>
-      <c r="HD3" s="14"/>
-      <c r="HE3" s="15"/>
-      <c r="HF3" s="10" t="s">
+      <c r="HC3" s="19"/>
+      <c r="HD3" s="19"/>
+      <c r="HE3" s="20"/>
+      <c r="HF3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="HG3" s="11"/>
-      <c r="HH3" s="11"/>
-      <c r="HI3" s="12"/>
+      <c r="HG3" s="16"/>
+      <c r="HH3" s="16"/>
+      <c r="HI3" s="17"/>
     </row>
     <row r="4" spans="1:217" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -80814,8 +80841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:W26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80824,844 +80851,844 @@
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="24">
         <v>3</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="19">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="24">
         <v>36</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="19">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="24">
         <v>47</v>
       </c>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20"/>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="19">
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="24">
         <v>54</v>
       </c>
-      <c r="BW1" s="20"/>
-      <c r="BX1" s="20"/>
-      <c r="BY1" s="20"/>
-      <c r="BZ1" s="20"/>
-      <c r="CA1" s="20"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="20"/>
-      <c r="CD1" s="20"/>
-      <c r="CE1" s="20"/>
-      <c r="CF1" s="20"/>
-      <c r="CG1" s="20"/>
-      <c r="CH1" s="20"/>
-      <c r="CI1" s="20"/>
-      <c r="CJ1" s="20"/>
-      <c r="CK1" s="20"/>
-      <c r="CL1" s="20"/>
-      <c r="CM1" s="20"/>
-      <c r="CN1" s="20"/>
-      <c r="CO1" s="20"/>
-      <c r="CP1" s="20"/>
-      <c r="CQ1" s="20"/>
-      <c r="CR1" s="20"/>
-      <c r="CS1" s="21"/>
-      <c r="CT1" s="19">
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25"/>
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="25"/>
+      <c r="CR1" s="25"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="24">
         <v>122</v>
       </c>
-      <c r="CU1" s="20"/>
-      <c r="CV1" s="20"/>
-      <c r="CW1" s="20"/>
-      <c r="CX1" s="20"/>
-      <c r="CY1" s="20"/>
-      <c r="CZ1" s="20"/>
-      <c r="DA1" s="20"/>
-      <c r="DB1" s="20"/>
-      <c r="DC1" s="20"/>
-      <c r="DD1" s="20"/>
-      <c r="DE1" s="20"/>
-      <c r="DF1" s="20"/>
-      <c r="DG1" s="20"/>
-      <c r="DH1" s="20"/>
-      <c r="DI1" s="20"/>
-      <c r="DJ1" s="20"/>
-      <c r="DK1" s="20"/>
-      <c r="DL1" s="20"/>
-      <c r="DM1" s="20"/>
-      <c r="DN1" s="20"/>
-      <c r="DO1" s="20"/>
-      <c r="DP1" s="20"/>
-      <c r="DQ1" s="21"/>
-      <c r="DR1" s="19">
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="25"/>
+      <c r="CZ1" s="25"/>
+      <c r="DA1" s="25"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25"/>
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25"/>
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25"/>
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="25"/>
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="24">
         <v>126</v>
       </c>
-      <c r="DS1" s="20"/>
-      <c r="DT1" s="20"/>
-      <c r="DU1" s="20"/>
-      <c r="DV1" s="20"/>
-      <c r="DW1" s="20"/>
-      <c r="DX1" s="20"/>
-      <c r="DY1" s="20"/>
-      <c r="DZ1" s="20"/>
-      <c r="EA1" s="20"/>
-      <c r="EB1" s="20"/>
-      <c r="EC1" s="20"/>
-      <c r="ED1" s="20"/>
-      <c r="EE1" s="20"/>
-      <c r="EF1" s="20"/>
-      <c r="EG1" s="20"/>
-      <c r="EH1" s="20"/>
-      <c r="EI1" s="20"/>
-      <c r="EJ1" s="20"/>
-      <c r="EK1" s="20"/>
-      <c r="EL1" s="20"/>
-      <c r="EM1" s="20"/>
-      <c r="EN1" s="20"/>
-      <c r="EO1" s="21"/>
-      <c r="EP1" s="19">
+      <c r="DS1" s="25"/>
+      <c r="DT1" s="25"/>
+      <c r="DU1" s="25"/>
+      <c r="DV1" s="25"/>
+      <c r="DW1" s="25"/>
+      <c r="DX1" s="25"/>
+      <c r="DY1" s="25"/>
+      <c r="DZ1" s="25"/>
+      <c r="EA1" s="25"/>
+      <c r="EB1" s="25"/>
+      <c r="EC1" s="25"/>
+      <c r="ED1" s="25"/>
+      <c r="EE1" s="25"/>
+      <c r="EF1" s="25"/>
+      <c r="EG1" s="25"/>
+      <c r="EH1" s="25"/>
+      <c r="EI1" s="25"/>
+      <c r="EJ1" s="25"/>
+      <c r="EK1" s="25"/>
+      <c r="EL1" s="25"/>
+      <c r="EM1" s="25"/>
+      <c r="EN1" s="25"/>
+      <c r="EO1" s="26"/>
+      <c r="EP1" s="24">
         <v>138</v>
       </c>
-      <c r="EQ1" s="20"/>
-      <c r="ER1" s="20"/>
-      <c r="ES1" s="20"/>
-      <c r="ET1" s="20"/>
-      <c r="EU1" s="20"/>
-      <c r="EV1" s="20"/>
-      <c r="EW1" s="20"/>
-      <c r="EX1" s="20"/>
-      <c r="EY1" s="20"/>
-      <c r="EZ1" s="20"/>
-      <c r="FA1" s="20"/>
-      <c r="FB1" s="20"/>
-      <c r="FC1" s="20"/>
-      <c r="FD1" s="20"/>
-      <c r="FE1" s="20"/>
-      <c r="FF1" s="20"/>
-      <c r="FG1" s="20"/>
-      <c r="FH1" s="20"/>
-      <c r="FI1" s="20"/>
-      <c r="FJ1" s="20"/>
-      <c r="FK1" s="20"/>
-      <c r="FL1" s="20"/>
-      <c r="FM1" s="21"/>
-      <c r="FN1" s="19">
+      <c r="EQ1" s="25"/>
+      <c r="ER1" s="25"/>
+      <c r="ES1" s="25"/>
+      <c r="ET1" s="25"/>
+      <c r="EU1" s="25"/>
+      <c r="EV1" s="25"/>
+      <c r="EW1" s="25"/>
+      <c r="EX1" s="25"/>
+      <c r="EY1" s="25"/>
+      <c r="EZ1" s="25"/>
+      <c r="FA1" s="25"/>
+      <c r="FB1" s="25"/>
+      <c r="FC1" s="25"/>
+      <c r="FD1" s="25"/>
+      <c r="FE1" s="25"/>
+      <c r="FF1" s="25"/>
+      <c r="FG1" s="25"/>
+      <c r="FH1" s="25"/>
+      <c r="FI1" s="25"/>
+      <c r="FJ1" s="25"/>
+      <c r="FK1" s="25"/>
+      <c r="FL1" s="25"/>
+      <c r="FM1" s="26"/>
+      <c r="FN1" s="24">
         <v>151</v>
       </c>
-      <c r="FO1" s="20"/>
-      <c r="FP1" s="20"/>
-      <c r="FQ1" s="20"/>
-      <c r="FR1" s="20"/>
-      <c r="FS1" s="20"/>
-      <c r="FT1" s="20"/>
-      <c r="FU1" s="20"/>
-      <c r="FV1" s="20"/>
-      <c r="FW1" s="20"/>
-      <c r="FX1" s="20"/>
-      <c r="FY1" s="20"/>
-      <c r="FZ1" s="20"/>
-      <c r="GA1" s="20"/>
-      <c r="GB1" s="20"/>
-      <c r="GC1" s="20"/>
-      <c r="GD1" s="20"/>
-      <c r="GE1" s="20"/>
-      <c r="GF1" s="20"/>
-      <c r="GG1" s="20"/>
-      <c r="GH1" s="20"/>
-      <c r="GI1" s="20"/>
-      <c r="GJ1" s="20"/>
-      <c r="GK1" s="21"/>
-      <c r="GL1" s="19">
+      <c r="FO1" s="25"/>
+      <c r="FP1" s="25"/>
+      <c r="FQ1" s="25"/>
+      <c r="FR1" s="25"/>
+      <c r="FS1" s="25"/>
+      <c r="FT1" s="25"/>
+      <c r="FU1" s="25"/>
+      <c r="FV1" s="25"/>
+      <c r="FW1" s="25"/>
+      <c r="FX1" s="25"/>
+      <c r="FY1" s="25"/>
+      <c r="FZ1" s="25"/>
+      <c r="GA1" s="25"/>
+      <c r="GB1" s="25"/>
+      <c r="GC1" s="25"/>
+      <c r="GD1" s="25"/>
+      <c r="GE1" s="25"/>
+      <c r="GF1" s="25"/>
+      <c r="GG1" s="25"/>
+      <c r="GH1" s="25"/>
+      <c r="GI1" s="25"/>
+      <c r="GJ1" s="25"/>
+      <c r="GK1" s="26"/>
+      <c r="GL1" s="24">
         <v>175</v>
       </c>
-      <c r="GM1" s="20"/>
-      <c r="GN1" s="20"/>
-      <c r="GO1" s="20"/>
-      <c r="GP1" s="20"/>
-      <c r="GQ1" s="20"/>
-      <c r="GR1" s="20"/>
-      <c r="GS1" s="20"/>
-      <c r="GT1" s="20"/>
-      <c r="GU1" s="20"/>
-      <c r="GV1" s="20"/>
-      <c r="GW1" s="20"/>
-      <c r="GX1" s="20"/>
-      <c r="GY1" s="20"/>
-      <c r="GZ1" s="20"/>
-      <c r="HA1" s="20"/>
-      <c r="HB1" s="20"/>
-      <c r="HC1" s="20"/>
-      <c r="HD1" s="20"/>
-      <c r="HE1" s="20"/>
-      <c r="HF1" s="20"/>
-      <c r="HG1" s="20"/>
-      <c r="HH1" s="20"/>
-      <c r="HI1" s="21"/>
+      <c r="GM1" s="25"/>
+      <c r="GN1" s="25"/>
+      <c r="GO1" s="25"/>
+      <c r="GP1" s="25"/>
+      <c r="GQ1" s="25"/>
+      <c r="GR1" s="25"/>
+      <c r="GS1" s="25"/>
+      <c r="GT1" s="25"/>
+      <c r="GU1" s="25"/>
+      <c r="GV1" s="25"/>
+      <c r="GW1" s="25"/>
+      <c r="GX1" s="25"/>
+      <c r="GY1" s="25"/>
+      <c r="GZ1" s="25"/>
+      <c r="HA1" s="25"/>
+      <c r="HB1" s="25"/>
+      <c r="HC1" s="25"/>
+      <c r="HD1" s="25"/>
+      <c r="HE1" s="25"/>
+      <c r="HF1" s="25"/>
+      <c r="HG1" s="25"/>
+      <c r="HH1" s="25"/>
+      <c r="HI1" s="26"/>
     </row>
     <row r="2" spans="1:217" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="16">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21">
         <v>2</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="16">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="21">
         <v>3</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="16">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="21">
         <v>1</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="16">
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="21">
         <v>2</v>
       </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="16">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="21">
         <v>3</v>
       </c>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="16">
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="21">
         <v>1</v>
       </c>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="16">
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="21">
         <v>2</v>
       </c>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="17"/>
-      <c r="BL2" s="17"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="16">
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="21">
         <v>3</v>
       </c>
-      <c r="BO2" s="17"/>
-      <c r="BP2" s="17"/>
-      <c r="BQ2" s="17"/>
-      <c r="BR2" s="17"/>
-      <c r="BS2" s="17"/>
-      <c r="BT2" s="17"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="16">
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="21">
         <v>1</v>
       </c>
-      <c r="BW2" s="17"/>
-      <c r="BX2" s="17"/>
-      <c r="BY2" s="17"/>
-      <c r="BZ2" s="17"/>
-      <c r="CA2" s="17"/>
-      <c r="CB2" s="17"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="16">
+      <c r="BW2" s="22"/>
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="23"/>
+      <c r="CD2" s="21">
         <v>2</v>
       </c>
-      <c r="CE2" s="17"/>
-      <c r="CF2" s="17"/>
-      <c r="CG2" s="17"/>
-      <c r="CH2" s="17"/>
-      <c r="CI2" s="17"/>
-      <c r="CJ2" s="17"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="16">
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="21">
         <v>3</v>
       </c>
-      <c r="CM2" s="17"/>
-      <c r="CN2" s="17"/>
-      <c r="CO2" s="17"/>
-      <c r="CP2" s="17"/>
-      <c r="CQ2" s="17"/>
-      <c r="CR2" s="17"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="16">
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="21">
         <v>1</v>
       </c>
-      <c r="CU2" s="17"/>
-      <c r="CV2" s="17"/>
-      <c r="CW2" s="17"/>
-      <c r="CX2" s="17"/>
-      <c r="CY2" s="17"/>
-      <c r="CZ2" s="17"/>
-      <c r="DA2" s="18"/>
-      <c r="DB2" s="16">
+      <c r="CU2" s="22"/>
+      <c r="CV2" s="22"/>
+      <c r="CW2" s="22"/>
+      <c r="CX2" s="22"/>
+      <c r="CY2" s="22"/>
+      <c r="CZ2" s="22"/>
+      <c r="DA2" s="23"/>
+      <c r="DB2" s="21">
         <v>2</v>
       </c>
-      <c r="DC2" s="17"/>
-      <c r="DD2" s="17"/>
-      <c r="DE2" s="17"/>
-      <c r="DF2" s="17"/>
-      <c r="DG2" s="17"/>
-      <c r="DH2" s="17"/>
-      <c r="DI2" s="18"/>
-      <c r="DJ2" s="16">
+      <c r="DC2" s="22"/>
+      <c r="DD2" s="22"/>
+      <c r="DE2" s="22"/>
+      <c r="DF2" s="22"/>
+      <c r="DG2" s="22"/>
+      <c r="DH2" s="22"/>
+      <c r="DI2" s="23"/>
+      <c r="DJ2" s="21">
         <v>3</v>
       </c>
-      <c r="DK2" s="17"/>
-      <c r="DL2" s="17"/>
-      <c r="DM2" s="17"/>
-      <c r="DN2" s="17"/>
-      <c r="DO2" s="17"/>
-      <c r="DP2" s="17"/>
-      <c r="DQ2" s="18"/>
-      <c r="DR2" s="16">
+      <c r="DK2" s="22"/>
+      <c r="DL2" s="22"/>
+      <c r="DM2" s="22"/>
+      <c r="DN2" s="22"/>
+      <c r="DO2" s="22"/>
+      <c r="DP2" s="22"/>
+      <c r="DQ2" s="23"/>
+      <c r="DR2" s="21">
         <v>1</v>
       </c>
-      <c r="DS2" s="17"/>
-      <c r="DT2" s="17"/>
-      <c r="DU2" s="17"/>
-      <c r="DV2" s="17"/>
-      <c r="DW2" s="17"/>
-      <c r="DX2" s="17"/>
-      <c r="DY2" s="18"/>
-      <c r="DZ2" s="16">
+      <c r="DS2" s="22"/>
+      <c r="DT2" s="22"/>
+      <c r="DU2" s="22"/>
+      <c r="DV2" s="22"/>
+      <c r="DW2" s="22"/>
+      <c r="DX2" s="22"/>
+      <c r="DY2" s="23"/>
+      <c r="DZ2" s="21">
         <v>2</v>
       </c>
-      <c r="EA2" s="17"/>
-      <c r="EB2" s="17"/>
-      <c r="EC2" s="17"/>
-      <c r="ED2" s="17"/>
-      <c r="EE2" s="17"/>
-      <c r="EF2" s="17"/>
-      <c r="EG2" s="18"/>
-      <c r="EH2" s="16">
+      <c r="EA2" s="22"/>
+      <c r="EB2" s="22"/>
+      <c r="EC2" s="22"/>
+      <c r="ED2" s="22"/>
+      <c r="EE2" s="22"/>
+      <c r="EF2" s="22"/>
+      <c r="EG2" s="23"/>
+      <c r="EH2" s="21">
         <v>3</v>
       </c>
-      <c r="EI2" s="17"/>
-      <c r="EJ2" s="17"/>
-      <c r="EK2" s="17"/>
-      <c r="EL2" s="17"/>
-      <c r="EM2" s="17"/>
-      <c r="EN2" s="17"/>
-      <c r="EO2" s="18"/>
-      <c r="EP2" s="16">
+      <c r="EI2" s="22"/>
+      <c r="EJ2" s="22"/>
+      <c r="EK2" s="22"/>
+      <c r="EL2" s="22"/>
+      <c r="EM2" s="22"/>
+      <c r="EN2" s="22"/>
+      <c r="EO2" s="23"/>
+      <c r="EP2" s="21">
         <v>1</v>
       </c>
-      <c r="EQ2" s="17"/>
-      <c r="ER2" s="17"/>
-      <c r="ES2" s="17"/>
-      <c r="ET2" s="17"/>
-      <c r="EU2" s="17"/>
-      <c r="EV2" s="17"/>
-      <c r="EW2" s="18"/>
-      <c r="EX2" s="16">
+      <c r="EQ2" s="22"/>
+      <c r="ER2" s="22"/>
+      <c r="ES2" s="22"/>
+      <c r="ET2" s="22"/>
+      <c r="EU2" s="22"/>
+      <c r="EV2" s="22"/>
+      <c r="EW2" s="23"/>
+      <c r="EX2" s="21">
         <v>2</v>
       </c>
-      <c r="EY2" s="17"/>
-      <c r="EZ2" s="17"/>
-      <c r="FA2" s="17"/>
-      <c r="FB2" s="17"/>
-      <c r="FC2" s="17"/>
-      <c r="FD2" s="17"/>
-      <c r="FE2" s="18"/>
-      <c r="FF2" s="16">
+      <c r="EY2" s="22"/>
+      <c r="EZ2" s="22"/>
+      <c r="FA2" s="22"/>
+      <c r="FB2" s="22"/>
+      <c r="FC2" s="22"/>
+      <c r="FD2" s="22"/>
+      <c r="FE2" s="23"/>
+      <c r="FF2" s="21">
         <v>3</v>
       </c>
-      <c r="FG2" s="17"/>
-      <c r="FH2" s="17"/>
-      <c r="FI2" s="17"/>
-      <c r="FJ2" s="17"/>
-      <c r="FK2" s="17"/>
-      <c r="FL2" s="17"/>
-      <c r="FM2" s="18"/>
-      <c r="FN2" s="16">
+      <c r="FG2" s="22"/>
+      <c r="FH2" s="22"/>
+      <c r="FI2" s="22"/>
+      <c r="FJ2" s="22"/>
+      <c r="FK2" s="22"/>
+      <c r="FL2" s="22"/>
+      <c r="FM2" s="23"/>
+      <c r="FN2" s="21">
         <v>1</v>
       </c>
-      <c r="FO2" s="17"/>
-      <c r="FP2" s="17"/>
-      <c r="FQ2" s="17"/>
-      <c r="FR2" s="17"/>
-      <c r="FS2" s="17"/>
-      <c r="FT2" s="17"/>
-      <c r="FU2" s="18"/>
-      <c r="FV2" s="16">
+      <c r="FO2" s="22"/>
+      <c r="FP2" s="22"/>
+      <c r="FQ2" s="22"/>
+      <c r="FR2" s="22"/>
+      <c r="FS2" s="22"/>
+      <c r="FT2" s="22"/>
+      <c r="FU2" s="23"/>
+      <c r="FV2" s="21">
         <v>2</v>
       </c>
-      <c r="FW2" s="17"/>
-      <c r="FX2" s="17"/>
-      <c r="FY2" s="17"/>
-      <c r="FZ2" s="17"/>
-      <c r="GA2" s="17"/>
-      <c r="GB2" s="17"/>
-      <c r="GC2" s="18"/>
-      <c r="GD2" s="16">
+      <c r="FW2" s="22"/>
+      <c r="FX2" s="22"/>
+      <c r="FY2" s="22"/>
+      <c r="FZ2" s="22"/>
+      <c r="GA2" s="22"/>
+      <c r="GB2" s="22"/>
+      <c r="GC2" s="23"/>
+      <c r="GD2" s="21">
         <v>3</v>
       </c>
-      <c r="GE2" s="17"/>
-      <c r="GF2" s="17"/>
-      <c r="GG2" s="17"/>
-      <c r="GH2" s="17"/>
-      <c r="GI2" s="17"/>
-      <c r="GJ2" s="17"/>
-      <c r="GK2" s="18"/>
-      <c r="GL2" s="16">
+      <c r="GE2" s="22"/>
+      <c r="GF2" s="22"/>
+      <c r="GG2" s="22"/>
+      <c r="GH2" s="22"/>
+      <c r="GI2" s="22"/>
+      <c r="GJ2" s="22"/>
+      <c r="GK2" s="23"/>
+      <c r="GL2" s="21">
         <v>1</v>
       </c>
-      <c r="GM2" s="17"/>
-      <c r="GN2" s="17"/>
-      <c r="GO2" s="17"/>
-      <c r="GP2" s="17"/>
-      <c r="GQ2" s="17"/>
-      <c r="GR2" s="17"/>
-      <c r="GS2" s="18"/>
-      <c r="GT2" s="16">
+      <c r="GM2" s="22"/>
+      <c r="GN2" s="22"/>
+      <c r="GO2" s="22"/>
+      <c r="GP2" s="22"/>
+      <c r="GQ2" s="22"/>
+      <c r="GR2" s="22"/>
+      <c r="GS2" s="23"/>
+      <c r="GT2" s="21">
         <v>2</v>
       </c>
-      <c r="GU2" s="17"/>
-      <c r="GV2" s="17"/>
-      <c r="GW2" s="17"/>
-      <c r="GX2" s="17"/>
-      <c r="GY2" s="17"/>
-      <c r="GZ2" s="17"/>
-      <c r="HA2" s="18"/>
-      <c r="HB2" s="16">
+      <c r="GU2" s="22"/>
+      <c r="GV2" s="22"/>
+      <c r="GW2" s="22"/>
+      <c r="GX2" s="22"/>
+      <c r="GY2" s="22"/>
+      <c r="GZ2" s="22"/>
+      <c r="HA2" s="23"/>
+      <c r="HB2" s="21">
         <v>3</v>
       </c>
-      <c r="HC2" s="17"/>
-      <c r="HD2" s="17"/>
-      <c r="HE2" s="17"/>
-      <c r="HF2" s="17"/>
-      <c r="HG2" s="17"/>
-      <c r="HH2" s="17"/>
-      <c r="HI2" s="18"/>
+      <c r="HC2" s="22"/>
+      <c r="HD2" s="22"/>
+      <c r="HE2" s="22"/>
+      <c r="HF2" s="22"/>
+      <c r="HG2" s="22"/>
+      <c r="HH2" s="22"/>
+      <c r="HI2" s="23"/>
     </row>
     <row r="3" spans="1:217" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="10" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="10" t="s">
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="13" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="10" t="s">
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="13" t="s">
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="10" t="s">
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="13" t="s">
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="10" t="s">
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="13" t="s">
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="10" t="s">
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="13" t="s">
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="10" t="s">
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="13" t="s">
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="17"/>
+      <c r="BN3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="15"/>
-      <c r="BR3" s="10" t="s">
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="12"/>
-      <c r="BV3" s="13" t="s">
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="17"/>
+      <c r="BV3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="15"/>
-      <c r="BZ3" s="10" t="s">
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="CA3" s="11"/>
-      <c r="CB3" s="11"/>
-      <c r="CC3" s="12"/>
-      <c r="CD3" s="13" t="s">
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="17"/>
+      <c r="CD3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="15"/>
-      <c r="CH3" s="10" t="s">
+      <c r="CE3" s="19"/>
+      <c r="CF3" s="19"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="12"/>
-      <c r="CL3" s="13" t="s">
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="17"/>
+      <c r="CL3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="15"/>
-      <c r="CP3" s="10" t="s">
+      <c r="CM3" s="19"/>
+      <c r="CN3" s="19"/>
+      <c r="CO3" s="20"/>
+      <c r="CP3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="CQ3" s="11"/>
-      <c r="CR3" s="11"/>
-      <c r="CS3" s="12"/>
-      <c r="CT3" s="13" t="s">
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="17"/>
+      <c r="CT3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="15"/>
-      <c r="CX3" s="10" t="s">
+      <c r="CU3" s="19"/>
+      <c r="CV3" s="19"/>
+      <c r="CW3" s="20"/>
+      <c r="CX3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="CY3" s="11"/>
-      <c r="CZ3" s="11"/>
-      <c r="DA3" s="12"/>
-      <c r="DB3" s="13" t="s">
+      <c r="CY3" s="16"/>
+      <c r="CZ3" s="16"/>
+      <c r="DA3" s="17"/>
+      <c r="DB3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="15"/>
-      <c r="DF3" s="10" t="s">
+      <c r="DC3" s="19"/>
+      <c r="DD3" s="19"/>
+      <c r="DE3" s="20"/>
+      <c r="DF3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="DG3" s="11"/>
-      <c r="DH3" s="11"/>
-      <c r="DI3" s="12"/>
-      <c r="DJ3" s="13" t="s">
+      <c r="DG3" s="16"/>
+      <c r="DH3" s="16"/>
+      <c r="DI3" s="17"/>
+      <c r="DJ3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="15"/>
-      <c r="DN3" s="10" t="s">
+      <c r="DK3" s="19"/>
+      <c r="DL3" s="19"/>
+      <c r="DM3" s="20"/>
+      <c r="DN3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="DO3" s="11"/>
-      <c r="DP3" s="11"/>
-      <c r="DQ3" s="12"/>
-      <c r="DR3" s="13" t="s">
+      <c r="DO3" s="16"/>
+      <c r="DP3" s="16"/>
+      <c r="DQ3" s="17"/>
+      <c r="DR3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="15"/>
-      <c r="DV3" s="10" t="s">
+      <c r="DS3" s="19"/>
+      <c r="DT3" s="19"/>
+      <c r="DU3" s="20"/>
+      <c r="DV3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="DW3" s="11"/>
-      <c r="DX3" s="11"/>
-      <c r="DY3" s="12"/>
-      <c r="DZ3" s="13" t="s">
+      <c r="DW3" s="16"/>
+      <c r="DX3" s="16"/>
+      <c r="DY3" s="17"/>
+      <c r="DZ3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="15"/>
-      <c r="ED3" s="10" t="s">
+      <c r="EA3" s="19"/>
+      <c r="EB3" s="19"/>
+      <c r="EC3" s="20"/>
+      <c r="ED3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="EE3" s="11"/>
-      <c r="EF3" s="11"/>
-      <c r="EG3" s="12"/>
-      <c r="EH3" s="13" t="s">
+      <c r="EE3" s="16"/>
+      <c r="EF3" s="16"/>
+      <c r="EG3" s="17"/>
+      <c r="EH3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="15"/>
-      <c r="EL3" s="10" t="s">
+      <c r="EI3" s="19"/>
+      <c r="EJ3" s="19"/>
+      <c r="EK3" s="20"/>
+      <c r="EL3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="EM3" s="11"/>
-      <c r="EN3" s="11"/>
-      <c r="EO3" s="12"/>
-      <c r="EP3" s="13" t="s">
+      <c r="EM3" s="16"/>
+      <c r="EN3" s="16"/>
+      <c r="EO3" s="17"/>
+      <c r="EP3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="15"/>
-      <c r="ET3" s="10" t="s">
+      <c r="EQ3" s="19"/>
+      <c r="ER3" s="19"/>
+      <c r="ES3" s="20"/>
+      <c r="ET3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="EU3" s="11"/>
-      <c r="EV3" s="11"/>
-      <c r="EW3" s="12"/>
-      <c r="EX3" s="13" t="s">
+      <c r="EU3" s="16"/>
+      <c r="EV3" s="16"/>
+      <c r="EW3" s="17"/>
+      <c r="EX3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="15"/>
-      <c r="FB3" s="10" t="s">
+      <c r="EY3" s="19"/>
+      <c r="EZ3" s="19"/>
+      <c r="FA3" s="20"/>
+      <c r="FB3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="FC3" s="11"/>
-      <c r="FD3" s="11"/>
-      <c r="FE3" s="12"/>
-      <c r="FF3" s="13" t="s">
+      <c r="FC3" s="16"/>
+      <c r="FD3" s="16"/>
+      <c r="FE3" s="17"/>
+      <c r="FF3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14"/>
-      <c r="FI3" s="15"/>
-      <c r="FJ3" s="10" t="s">
+      <c r="FG3" s="19"/>
+      <c r="FH3" s="19"/>
+      <c r="FI3" s="20"/>
+      <c r="FJ3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="FK3" s="11"/>
-      <c r="FL3" s="11"/>
-      <c r="FM3" s="12"/>
-      <c r="FN3" s="13" t="s">
+      <c r="FK3" s="16"/>
+      <c r="FL3" s="16"/>
+      <c r="FM3" s="17"/>
+      <c r="FN3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="15"/>
-      <c r="FR3" s="10" t="s">
+      <c r="FO3" s="19"/>
+      <c r="FP3" s="19"/>
+      <c r="FQ3" s="20"/>
+      <c r="FR3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="FS3" s="11"/>
-      <c r="FT3" s="11"/>
-      <c r="FU3" s="12"/>
-      <c r="FV3" s="13" t="s">
+      <c r="FS3" s="16"/>
+      <c r="FT3" s="16"/>
+      <c r="FU3" s="17"/>
+      <c r="FV3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="FW3" s="14"/>
-      <c r="FX3" s="14"/>
-      <c r="FY3" s="15"/>
-      <c r="FZ3" s="10" t="s">
+      <c r="FW3" s="19"/>
+      <c r="FX3" s="19"/>
+      <c r="FY3" s="20"/>
+      <c r="FZ3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="GA3" s="11"/>
-      <c r="GB3" s="11"/>
-      <c r="GC3" s="12"/>
-      <c r="GD3" s="13" t="s">
+      <c r="GA3" s="16"/>
+      <c r="GB3" s="16"/>
+      <c r="GC3" s="17"/>
+      <c r="GD3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="GE3" s="14"/>
-      <c r="GF3" s="14"/>
-      <c r="GG3" s="15"/>
-      <c r="GH3" s="10" t="s">
+      <c r="GE3" s="19"/>
+      <c r="GF3" s="19"/>
+      <c r="GG3" s="20"/>
+      <c r="GH3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="GI3" s="11"/>
-      <c r="GJ3" s="11"/>
-      <c r="GK3" s="12"/>
-      <c r="GL3" s="13" t="s">
+      <c r="GI3" s="16"/>
+      <c r="GJ3" s="16"/>
+      <c r="GK3" s="17"/>
+      <c r="GL3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="GM3" s="14"/>
-      <c r="GN3" s="14"/>
-      <c r="GO3" s="15"/>
-      <c r="GP3" s="10" t="s">
+      <c r="GM3" s="19"/>
+      <c r="GN3" s="19"/>
+      <c r="GO3" s="20"/>
+      <c r="GP3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="GQ3" s="11"/>
-      <c r="GR3" s="11"/>
-      <c r="GS3" s="12"/>
-      <c r="GT3" s="13" t="s">
+      <c r="GQ3" s="16"/>
+      <c r="GR3" s="16"/>
+      <c r="GS3" s="17"/>
+      <c r="GT3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="GU3" s="14"/>
-      <c r="GV3" s="14"/>
-      <c r="GW3" s="15"/>
-      <c r="GX3" s="10" t="s">
+      <c r="GU3" s="19"/>
+      <c r="GV3" s="19"/>
+      <c r="GW3" s="20"/>
+      <c r="GX3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="GY3" s="11"/>
-      <c r="GZ3" s="11"/>
-      <c r="HA3" s="12"/>
-      <c r="HB3" s="13" t="s">
+      <c r="GY3" s="16"/>
+      <c r="GZ3" s="16"/>
+      <c r="HA3" s="17"/>
+      <c r="HB3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="HC3" s="14"/>
-      <c r="HD3" s="14"/>
-      <c r="HE3" s="15"/>
-      <c r="HF3" s="10" t="s">
+      <c r="HC3" s="19"/>
+      <c r="HD3" s="19"/>
+      <c r="HE3" s="20"/>
+      <c r="HF3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="HG3" s="11"/>
-      <c r="HH3" s="11"/>
-      <c r="HI3" s="12"/>
+      <c r="HG3" s="16"/>
+      <c r="HH3" s="16"/>
+      <c r="HI3" s="17"/>
     </row>
     <row r="4" spans="1:217" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -84985,11 +85012,6 @@
     <mergeCell ref="GH3:GK3"/>
     <mergeCell ref="GL3:GO3"/>
     <mergeCell ref="GP3:GS3"/>
-    <mergeCell ref="EX3:FA3"/>
-    <mergeCell ref="FB3:FE3"/>
-    <mergeCell ref="FF3:FI3"/>
-    <mergeCell ref="FJ3:FM3"/>
-    <mergeCell ref="FN3:FQ3"/>
     <mergeCell ref="FR3:FU3"/>
     <mergeCell ref="DZ3:EC3"/>
     <mergeCell ref="ED3:EG3"/>
@@ -84997,11 +85019,11 @@
     <mergeCell ref="EL3:EO3"/>
     <mergeCell ref="EP3:ES3"/>
     <mergeCell ref="ET3:EW3"/>
-    <mergeCell ref="DB3:DE3"/>
-    <mergeCell ref="DF3:DI3"/>
-    <mergeCell ref="DJ3:DM3"/>
-    <mergeCell ref="DN3:DQ3"/>
-    <mergeCell ref="DR3:DU3"/>
+    <mergeCell ref="EX3:FA3"/>
+    <mergeCell ref="FB3:FE3"/>
+    <mergeCell ref="FF3:FI3"/>
+    <mergeCell ref="FJ3:FM3"/>
+    <mergeCell ref="FN3:FQ3"/>
     <mergeCell ref="DV3:DY3"/>
     <mergeCell ref="CD3:CG3"/>
     <mergeCell ref="CH3:CK3"/>
@@ -85009,11 +85031,11 @@
     <mergeCell ref="CP3:CS3"/>
     <mergeCell ref="CT3:CW3"/>
     <mergeCell ref="CX3:DA3"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="BR3:BU3"/>
-    <mergeCell ref="BV3:BY3"/>
+    <mergeCell ref="DB3:DE3"/>
+    <mergeCell ref="DF3:DI3"/>
+    <mergeCell ref="DJ3:DM3"/>
+    <mergeCell ref="DN3:DQ3"/>
+    <mergeCell ref="DR3:DU3"/>
     <mergeCell ref="BZ3:CC3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AO3"/>
@@ -85021,6 +85043,11 @@
     <mergeCell ref="AT3:AW3"/>
     <mergeCell ref="AX3:BA3"/>
     <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BV3:BY3"/>
     <mergeCell ref="GT2:HA2"/>
     <mergeCell ref="HB2:HI2"/>
     <mergeCell ref="B3:E3"/>
@@ -85037,11 +85064,6 @@
     <mergeCell ref="FV2:GC2"/>
     <mergeCell ref="GD2:GK2"/>
     <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="DZ2:EG2"/>
-    <mergeCell ref="EH2:EO2"/>
     <mergeCell ref="EP2:EW2"/>
     <mergeCell ref="BF2:BM2"/>
     <mergeCell ref="BN2:BU2"/>
@@ -85049,6 +85071,11 @@
     <mergeCell ref="CD2:CK2"/>
     <mergeCell ref="CL2:CS2"/>
     <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="DZ2:EG2"/>
+    <mergeCell ref="EH2:EO2"/>
     <mergeCell ref="EP1:FM1"/>
     <mergeCell ref="FN1:GK1"/>
     <mergeCell ref="GL1:HI1"/>
@@ -85072,12 +85099,1365 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:RA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:469" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24">
+        <v>3</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="24">
+        <v>36</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="24">
+        <v>47</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="24">
+        <v>54</v>
+      </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="24">
+        <v>122</v>
+      </c>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24">
+        <v>126</v>
+      </c>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="24">
+        <v>138</v>
+      </c>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="24">
+        <v>151</v>
+      </c>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="24">
+        <v>175</v>
+      </c>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="MX1" s="10"/>
+      <c r="MY1" s="11"/>
+      <c r="MZ1" s="11"/>
+      <c r="NA1" s="11"/>
+      <c r="NB1" s="11"/>
+      <c r="NC1" s="11"/>
+      <c r="ND1" s="11"/>
+      <c r="NE1" s="11"/>
+      <c r="NF1" s="11"/>
+      <c r="NG1" s="11"/>
+      <c r="NH1" s="11"/>
+      <c r="NI1" s="11"/>
+      <c r="NJ1" s="11"/>
+      <c r="NK1" s="11"/>
+      <c r="NL1" s="11"/>
+      <c r="NM1" s="11"/>
+      <c r="NN1" s="11"/>
+      <c r="NO1" s="11"/>
+      <c r="NP1" s="11"/>
+      <c r="NQ1" s="11"/>
+      <c r="NR1" s="11"/>
+      <c r="NS1" s="11"/>
+      <c r="NT1" s="11"/>
+      <c r="NU1" s="11"/>
+      <c r="NV1" s="11"/>
+      <c r="NW1" s="11"/>
+      <c r="NX1" s="11"/>
+      <c r="NY1" s="11"/>
+      <c r="NZ1" s="11"/>
+      <c r="OA1" s="11"/>
+      <c r="OB1" s="11"/>
+      <c r="OC1" s="11"/>
+      <c r="OD1" s="11"/>
+      <c r="OE1" s="11"/>
+      <c r="OF1" s="11"/>
+      <c r="OG1" s="11"/>
+      <c r="OH1" s="11"/>
+      <c r="OI1" s="11"/>
+      <c r="OJ1" s="11"/>
+      <c r="OK1" s="11"/>
+      <c r="OL1" s="11"/>
+      <c r="OM1" s="11"/>
+      <c r="ON1" s="11"/>
+      <c r="OO1" s="11"/>
+      <c r="OP1" s="11"/>
+      <c r="OQ1" s="11"/>
+      <c r="OR1" s="11"/>
+      <c r="OS1" s="11"/>
+      <c r="OT1" s="11"/>
+      <c r="OU1" s="11"/>
+      <c r="OV1" s="11"/>
+      <c r="OW1" s="11"/>
+      <c r="OX1" s="11"/>
+      <c r="OY1" s="11"/>
+      <c r="OZ1" s="11"/>
+      <c r="PA1" s="11"/>
+      <c r="PB1" s="11"/>
+      <c r="PC1" s="11"/>
+      <c r="PD1" s="11"/>
+      <c r="PE1" s="11"/>
+      <c r="PF1" s="11"/>
+      <c r="PG1" s="11"/>
+      <c r="PH1" s="11"/>
+      <c r="PI1" s="11"/>
+      <c r="PJ1" s="11"/>
+      <c r="PK1" s="11"/>
+      <c r="PL1" s="11"/>
+      <c r="PM1" s="11"/>
+      <c r="PN1" s="11"/>
+      <c r="PO1" s="11"/>
+      <c r="PP1" s="11"/>
+      <c r="PQ1" s="11"/>
+      <c r="PR1" s="11"/>
+      <c r="PS1" s="11"/>
+      <c r="PT1" s="11"/>
+      <c r="PU1" s="11"/>
+      <c r="PV1" s="11"/>
+      <c r="PW1" s="11"/>
+      <c r="PX1" s="11"/>
+      <c r="PY1" s="11"/>
+      <c r="PZ1" s="11"/>
+      <c r="QA1" s="11"/>
+      <c r="QB1" s="11"/>
+      <c r="QC1" s="11"/>
+      <c r="QD1" s="11"/>
+      <c r="QE1" s="11"/>
+      <c r="QF1" s="11"/>
+      <c r="QG1" s="11"/>
+      <c r="QH1" s="11"/>
+      <c r="QI1" s="11"/>
+      <c r="QJ1" s="11"/>
+      <c r="QK1" s="11"/>
+      <c r="QL1" s="11"/>
+      <c r="QM1" s="11"/>
+      <c r="QN1" s="11"/>
+      <c r="QO1" s="11"/>
+      <c r="QP1" s="11"/>
+      <c r="QQ1" s="11"/>
+      <c r="QR1" s="11"/>
+      <c r="QS1" s="11"/>
+      <c r="QT1" s="11"/>
+      <c r="QU1" s="11"/>
+      <c r="QV1" s="11"/>
+      <c r="QW1" s="11"/>
+      <c r="QX1" s="11"/>
+      <c r="QY1" s="11"/>
+      <c r="QZ1" s="11"/>
+      <c r="RA1" s="11"/>
+    </row>
+    <row r="2" spans="1:469" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="21">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="21">
+        <v>3</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="27">
+        <v>1</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="21">
+        <v>2</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="21">
+        <v>3</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="27">
+        <v>1</v>
+      </c>
+      <c r="O2" s="28"/>
+      <c r="P2" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="21">
+        <v>3</v>
+      </c>
+      <c r="S2" s="23"/>
+      <c r="T2" s="27">
+        <v>1</v>
+      </c>
+      <c r="U2" s="28"/>
+      <c r="V2" s="21">
+        <v>2</v>
+      </c>
+      <c r="W2" s="23"/>
+      <c r="X2" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="21">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="21">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="21">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="21">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="21">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="21">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="11"/>
+      <c r="BZ2" s="11"/>
+      <c r="CA2" s="11"/>
+      <c r="CB2" s="11"/>
+      <c r="CC2" s="11"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11"/>
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11"/>
+      <c r="CO2" s="11"/>
+      <c r="CP2" s="11"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11"/>
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11"/>
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11"/>
+      <c r="DK2" s="11"/>
+      <c r="MX2" s="10"/>
+      <c r="MY2" s="11"/>
+      <c r="MZ2" s="11"/>
+      <c r="NA2" s="11"/>
+      <c r="NB2" s="11"/>
+      <c r="NC2" s="11"/>
+      <c r="ND2" s="11"/>
+      <c r="NE2" s="11"/>
+      <c r="NF2" s="11"/>
+      <c r="NG2" s="11"/>
+      <c r="NH2" s="11"/>
+      <c r="NI2" s="11"/>
+      <c r="NJ2" s="11"/>
+      <c r="NK2" s="11"/>
+      <c r="NL2" s="11"/>
+      <c r="NM2" s="11"/>
+      <c r="NN2" s="11"/>
+      <c r="NO2" s="11"/>
+      <c r="NP2" s="11"/>
+      <c r="NQ2" s="11"/>
+      <c r="NR2" s="11"/>
+      <c r="NS2" s="11"/>
+      <c r="NT2" s="11"/>
+      <c r="NU2" s="11"/>
+      <c r="NV2" s="11"/>
+      <c r="NW2" s="11"/>
+      <c r="NX2" s="11"/>
+      <c r="NY2" s="11"/>
+      <c r="NZ2" s="11"/>
+      <c r="OA2" s="11"/>
+      <c r="OB2" s="11"/>
+      <c r="OC2" s="11"/>
+      <c r="OD2" s="11"/>
+      <c r="OE2" s="11"/>
+      <c r="OF2" s="11"/>
+      <c r="OG2" s="11"/>
+      <c r="OH2" s="11"/>
+      <c r="OI2" s="11"/>
+      <c r="OJ2" s="11"/>
+      <c r="OK2" s="11"/>
+      <c r="OL2" s="11"/>
+      <c r="OM2" s="11"/>
+      <c r="ON2" s="11"/>
+      <c r="OO2" s="11"/>
+      <c r="OP2" s="11"/>
+      <c r="OQ2" s="11"/>
+      <c r="OR2" s="11"/>
+      <c r="OS2" s="11"/>
+      <c r="OT2" s="11"/>
+      <c r="OU2" s="11"/>
+      <c r="OV2" s="11"/>
+      <c r="OW2" s="11"/>
+      <c r="OX2" s="11"/>
+      <c r="OY2" s="11"/>
+      <c r="OZ2" s="11"/>
+      <c r="PA2" s="11"/>
+      <c r="PB2" s="11"/>
+      <c r="PC2" s="11"/>
+      <c r="PD2" s="11"/>
+      <c r="PE2" s="11"/>
+      <c r="PF2" s="11"/>
+      <c r="PG2" s="11"/>
+      <c r="PH2" s="11"/>
+      <c r="PI2" s="11"/>
+      <c r="PJ2" s="11"/>
+      <c r="PK2" s="11"/>
+      <c r="PL2" s="11"/>
+      <c r="PM2" s="11"/>
+      <c r="PN2" s="11"/>
+      <c r="PO2" s="11"/>
+      <c r="PP2" s="11"/>
+      <c r="PQ2" s="11"/>
+      <c r="PR2" s="11"/>
+      <c r="PS2" s="11"/>
+      <c r="PT2" s="11"/>
+      <c r="PU2" s="11"/>
+      <c r="PV2" s="11"/>
+      <c r="PW2" s="11"/>
+      <c r="PX2" s="11"/>
+      <c r="PY2" s="11"/>
+      <c r="PZ2" s="11"/>
+      <c r="QA2" s="11"/>
+      <c r="QB2" s="11"/>
+      <c r="QC2" s="11"/>
+      <c r="QD2" s="11"/>
+      <c r="QE2" s="11"/>
+      <c r="QF2" s="11"/>
+      <c r="QG2" s="11"/>
+      <c r="QH2" s="11"/>
+      <c r="QI2" s="11"/>
+      <c r="QJ2" s="11"/>
+      <c r="QK2" s="11"/>
+      <c r="QL2" s="11"/>
+      <c r="QM2" s="11"/>
+      <c r="QN2" s="11"/>
+      <c r="QO2" s="11"/>
+      <c r="QP2" s="11"/>
+      <c r="QQ2" s="11"/>
+      <c r="QR2" s="11"/>
+      <c r="QS2" s="11"/>
+      <c r="QT2" s="11"/>
+      <c r="QU2" s="11"/>
+      <c r="QV2" s="11"/>
+      <c r="QW2" s="11"/>
+      <c r="QX2" s="11"/>
+      <c r="QY2" s="11"/>
+      <c r="QZ2" s="11"/>
+      <c r="RA2" s="11"/>
+    </row>
+    <row r="3" spans="1:469" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="MX3" s="10"/>
+      <c r="MY3" s="11"/>
+      <c r="MZ3" s="11"/>
+      <c r="NA3" s="11"/>
+      <c r="NB3" s="11"/>
+      <c r="NC3" s="11"/>
+      <c r="ND3" s="11"/>
+      <c r="NE3" s="11"/>
+      <c r="NF3" s="11"/>
+      <c r="NG3" s="11"/>
+      <c r="NH3" s="11"/>
+      <c r="NI3" s="11"/>
+      <c r="NJ3" s="11"/>
+      <c r="NK3" s="11"/>
+      <c r="NL3" s="11"/>
+      <c r="NM3" s="11"/>
+      <c r="NN3" s="11"/>
+      <c r="NO3" s="11"/>
+      <c r="NP3" s="11"/>
+      <c r="NQ3" s="11"/>
+      <c r="NR3" s="11"/>
+      <c r="NS3" s="11"/>
+      <c r="NT3" s="11"/>
+      <c r="NU3" s="11"/>
+      <c r="NV3" s="11"/>
+      <c r="NW3" s="11"/>
+      <c r="NX3" s="11"/>
+      <c r="NY3" s="11"/>
+      <c r="NZ3" s="11"/>
+      <c r="OA3" s="11"/>
+      <c r="OB3" s="11"/>
+      <c r="OC3" s="11"/>
+      <c r="OD3" s="11"/>
+      <c r="OE3" s="11"/>
+      <c r="OF3" s="11"/>
+      <c r="OG3" s="11"/>
+      <c r="OH3" s="11"/>
+      <c r="OI3" s="11"/>
+      <c r="OJ3" s="11"/>
+      <c r="OK3" s="11"/>
+      <c r="OL3" s="11"/>
+      <c r="OM3" s="11"/>
+      <c r="ON3" s="11"/>
+      <c r="OO3" s="11"/>
+      <c r="OP3" s="11"/>
+      <c r="OQ3" s="11"/>
+      <c r="OR3" s="11"/>
+      <c r="OS3" s="11"/>
+      <c r="OT3" s="11"/>
+      <c r="OU3" s="11"/>
+      <c r="OV3" s="11"/>
+      <c r="OW3" s="11"/>
+      <c r="OX3" s="11"/>
+      <c r="OY3" s="11"/>
+      <c r="OZ3" s="11"/>
+      <c r="PA3" s="11"/>
+      <c r="PB3" s="11"/>
+      <c r="PC3" s="11"/>
+      <c r="PD3" s="11"/>
+      <c r="PE3" s="11"/>
+      <c r="PF3" s="11"/>
+      <c r="PG3" s="11"/>
+      <c r="PH3" s="11"/>
+      <c r="PI3" s="11"/>
+      <c r="PJ3" s="11"/>
+      <c r="PK3" s="11"/>
+      <c r="PL3" s="11"/>
+      <c r="PM3" s="11"/>
+      <c r="PN3" s="11"/>
+      <c r="PO3" s="11"/>
+      <c r="PP3" s="11"/>
+      <c r="PQ3" s="11"/>
+      <c r="PR3" s="11"/>
+      <c r="PS3" s="11"/>
+      <c r="PT3" s="11"/>
+      <c r="PU3" s="11"/>
+      <c r="PV3" s="11"/>
+      <c r="PW3" s="11"/>
+      <c r="PX3" s="11"/>
+      <c r="PY3" s="11"/>
+      <c r="PZ3" s="11"/>
+      <c r="QA3" s="11"/>
+      <c r="QB3" s="11"/>
+      <c r="QC3" s="11"/>
+      <c r="QD3" s="11"/>
+      <c r="QE3" s="11"/>
+      <c r="QF3" s="11"/>
+      <c r="QG3" s="11"/>
+      <c r="QH3" s="11"/>
+      <c r="QI3" s="11"/>
+      <c r="QJ3" s="11"/>
+      <c r="QK3" s="11"/>
+      <c r="QL3" s="11"/>
+      <c r="QM3" s="11"/>
+      <c r="QN3" s="11"/>
+      <c r="QO3" s="11"/>
+      <c r="QP3" s="11"/>
+      <c r="QQ3" s="11"/>
+      <c r="QR3" s="11"/>
+      <c r="QS3" s="11"/>
+      <c r="QT3" s="11"/>
+      <c r="QU3" s="11"/>
+      <c r="QV3" s="11"/>
+      <c r="QW3" s="11"/>
+      <c r="QX3" s="11"/>
+      <c r="QY3" s="11"/>
+      <c r="QZ3" s="11"/>
+      <c r="RA3" s="11"/>
+    </row>
+    <row r="4" spans="1:469" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>10646.977533333333</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10833.922499999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10739.338499999998</v>
+      </c>
+      <c r="E5" s="6">
+        <v>11593.1384</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11216.59126666667</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10734.508866666665</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45928.823999999993</v>
+      </c>
+      <c r="I5" s="6">
+        <v>42506.294266666671</v>
+      </c>
+      <c r="J5" s="6">
+        <v>37377.843100000006</v>
+      </c>
+      <c r="K5" s="6">
+        <v>38964.704033333335</v>
+      </c>
+      <c r="L5" s="6">
+        <v>37556.570666666667</v>
+      </c>
+      <c r="M5" s="6">
+        <v>37295.825100000002</v>
+      </c>
+      <c r="N5" s="6">
+        <v>32321.571866666665</v>
+      </c>
+      <c r="O5" s="6">
+        <v>34343.052733333338</v>
+      </c>
+      <c r="P5" s="6">
+        <v>31646.700166666666</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>32202.414033333331</v>
+      </c>
+      <c r="R5" s="6">
+        <v>29523.521133333332</v>
+      </c>
+      <c r="S5" s="6">
+        <v>31200.477866666668</v>
+      </c>
+      <c r="T5" s="6">
+        <v>19311.732400000001</v>
+      </c>
+      <c r="U5" s="6">
+        <v>16813.883133333336</v>
+      </c>
+      <c r="V5" s="6">
+        <v>18480.905299999999</v>
+      </c>
+      <c r="W5" s="6">
+        <v>17878.274433333332</v>
+      </c>
+      <c r="X5" s="6">
+        <v>15913.022766666669</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>12440.481066666664</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>53100.236566666674</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>54679.588566666673</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>52237.866733333336</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>56040.0239</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>49152.149366666672</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>51848.281599999995</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>19673.121033333333</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>18711.502566666666</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>18527.020133333332</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>18974.478800000001</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>18933.755766666669</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>18389.459600000006</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>23694.016733333337</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>23747.678133333331</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>24758.977733333333</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>24073.495733333337</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>23771.4889</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>22324.393366666663</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>36287.714866666662</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>40566.744999999995</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>36546.375</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>37724.441399999996</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>34912.154733333329</v>
+      </c>
+      <c r="AW5" s="6">
+        <v>35334.273366666675</v>
+      </c>
+      <c r="AX5" s="6">
+        <v>26131.669600000001</v>
+      </c>
+      <c r="AY5" s="6">
+        <v>27128.401433333333</v>
+      </c>
+      <c r="AZ5" s="6">
+        <v>25267.87526666667</v>
+      </c>
+      <c r="BA5" s="6">
+        <v>25447.863133333336</v>
+      </c>
+      <c r="BB5" s="6">
+        <v>25116.781200000001</v>
+      </c>
+      <c r="BC5" s="6">
+        <v>24812.350466666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="11"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="11"/>
+      <c r="BP12" s="11"/>
+      <c r="BQ12" s="11"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="11"/>
+      <c r="BT12" s="11"/>
+      <c r="BU12" s="11"/>
+      <c r="BV12" s="11"/>
+      <c r="BW12" s="11"/>
+      <c r="BX12" s="11"/>
+      <c r="BY12" s="11"/>
+      <c r="BZ12" s="11"/>
+      <c r="CA12" s="11"/>
+      <c r="CB12" s="11"/>
+      <c r="CC12" s="11"/>
+      <c r="CD12" s="11"/>
+      <c r="CE12" s="11"/>
+    </row>
+    <row r="13" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+      <c r="BU13" s="11"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="11"/>
+      <c r="BY13" s="11"/>
+      <c r="BZ13" s="11"/>
+      <c r="CA13" s="11"/>
+      <c r="CB13" s="11"/>
+      <c r="CC13" s="11"/>
+      <c r="CD13" s="11"/>
+      <c r="CE13" s="11"/>
+    </row>
+    <row r="14" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="11"/>
+      <c r="BH14" s="11"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="11"/>
+      <c r="BK14" s="11"/>
+      <c r="BL14" s="11"/>
+      <c r="BM14" s="11"/>
+      <c r="BN14" s="11"/>
+      <c r="BO14" s="11"/>
+      <c r="BP14" s="11"/>
+      <c r="BQ14" s="11"/>
+      <c r="BR14" s="11"/>
+      <c r="BS14" s="11"/>
+      <c r="BT14" s="11"/>
+      <c r="BU14" s="11"/>
+      <c r="BV14" s="11"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="11"/>
+      <c r="BY14" s="11"/>
+      <c r="BZ14" s="11"/>
+      <c r="CA14" s="11"/>
+      <c r="CB14" s="11"/>
+      <c r="CC14" s="11"/>
+      <c r="CD14" s="11"/>
+      <c r="CE14" s="11"/>
+    </row>
+    <row r="15" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:469" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>